--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\BioGears\core-lite\build2019\runtime\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\BioGears\core-lite\build\runtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2232,10 +2232,10 @@
     <t>40.0 mL/min kg</t>
   </si>
   <si>
-    <t>0.6475 1/atm</t>
-  </si>
-  <si>
-    <t>0.02485 1/atm</t>
+    <t>0.0233 1/atm</t>
+  </si>
+  <si>
+    <t>0.557 1/atm</t>
   </si>
 </sst>
 </file>
@@ -4931,7 +4931,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -8221,7 +8221,7 @@
         <v>73</v>
       </c>
       <c r="B12" s="104" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C12" s="104"/>
       <c r="D12" s="104"/>
@@ -8245,7 +8245,7 @@
       <c r="L12" s="104"/>
       <c r="M12" s="104"/>
       <c r="N12" s="101" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="O12" s="104"/>
       <c r="P12" s="104"/>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\BioGears\core-lite\build\runtime\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\BioGears\core-lite\share\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2382,9 +2382,6 @@
     <t>0.3 1/hr</t>
   </si>
   <si>
-    <t>[0.05; 2.75 ug/mL]</t>
-  </si>
-  <si>
     <t>[0.05; 1.5 ug/mL]</t>
   </si>
   <si>
@@ -2428,6 +2425,9 @@
   </si>
   <si>
     <t>30 mg/min</t>
+  </si>
+  <si>
+    <t>[0.55; 2.75 ug/mL]</t>
   </si>
 </sst>
 </file>
@@ -5277,7 +5277,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="BZ15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R29" sqref="R29"/>
+      <selection pane="bottomRight" activeCell="BZ49" sqref="BZ49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -14123,7 +14123,7 @@
     </row>
     <row r="29" spans="1:200" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="80" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B29" s="98"/>
       <c r="C29" s="98"/>
@@ -14142,37 +14142,37 @@
       <c r="P29" s="98"/>
       <c r="Q29" s="98"/>
       <c r="R29" s="87" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="S29" s="87"/>
       <c r="T29" s="87"/>
       <c r="U29" s="87"/>
       <c r="V29" s="87" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="W29" s="81" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="X29" s="87" t="s">
         <v>262</v>
       </c>
       <c r="Y29" s="87" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Z29" s="83" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AA29" s="87"/>
       <c r="AB29" s="87"/>
       <c r="AC29" s="87"/>
       <c r="AD29" s="83" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AE29" s="87"/>
       <c r="AF29" s="87"/>
       <c r="AG29" s="87"/>
       <c r="AH29" s="83" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AI29" s="89"/>
       <c r="AJ29" s="89"/>
@@ -14190,13 +14190,13 @@
       <c r="AV29" s="161"/>
       <c r="AW29" s="161"/>
       <c r="AX29" s="166" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AY29" s="166"/>
       <c r="AZ29" s="166"/>
       <c r="BA29" s="166"/>
       <c r="BB29" s="166" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="BC29" s="166">
         <v>0</v>
@@ -14205,13 +14205,13 @@
         <v>262</v>
       </c>
       <c r="BE29" s="166" t="s">
+        <v>790</v>
+      </c>
+      <c r="BF29" s="166" t="s">
         <v>791</v>
       </c>
-      <c r="BF29" s="166" t="s">
+      <c r="BG29" s="166" t="s">
         <v>792</v>
-      </c>
-      <c r="BG29" s="166" t="s">
-        <v>793</v>
       </c>
       <c r="BH29" s="166" t="s">
         <v>262</v>
@@ -14220,18 +14220,18 @@
         <v>331</v>
       </c>
       <c r="BJ29" s="166" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="BK29" s="166" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="BL29" s="166"/>
       <c r="BM29" s="166"/>
       <c r="BN29" s="166" t="s">
+        <v>794</v>
+      </c>
+      <c r="BO29" s="166" t="s">
         <v>795</v>
-      </c>
-      <c r="BO29" s="166" t="s">
-        <v>796</v>
       </c>
       <c r="BP29" s="166" t="s">
         <v>262</v>
@@ -14244,7 +14244,7 @@
       <c r="BT29" s="166"/>
       <c r="BU29" s="166"/>
       <c r="BV29" s="166" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="BW29" s="166"/>
       <c r="BX29" s="166"/>
@@ -14327,7 +14327,7 @@
       <c r="EW29" s="106"/>
       <c r="EX29" s="106"/>
       <c r="EY29" s="176" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="EZ29" s="176"/>
       <c r="FA29" s="176"/>
@@ -18731,7 +18731,7 @@
       <c r="BX45" s="166"/>
       <c r="BY45" s="229"/>
       <c r="BZ45" s="110" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="CA45" s="110" t="s">
         <v>699</v>
@@ -19767,7 +19767,7 @@
         <v>260</v>
       </c>
       <c r="BZ49" s="110" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="CA49" s="110" t="s">
         <v>699</v>
@@ -19806,7 +19806,7 @@
       <c r="CW49" s="110"/>
       <c r="CX49" s="110"/>
       <c r="CY49" s="110" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="CZ49" s="110"/>
       <c r="DA49" s="110"/>
@@ -20806,7 +20806,7 @@
       <c r="CG53" s="110"/>
       <c r="CH53" s="110"/>
       <c r="CI53" s="110" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="CJ53" s="110"/>
       <c r="CK53" s="110"/>
@@ -20830,7 +20830,7 @@
       <c r="CW53" s="110"/>
       <c r="CX53" s="110"/>
       <c r="CY53" s="110" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="CZ53" s="110"/>
       <c r="DA53" s="110"/>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="855" windowWidth="15090" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="855" windowWidth="15090" windowHeight="7050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5677" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5625" uniqueCount="796">
   <si>
     <t>Name</t>
   </si>
@@ -1437,12 +1437,6 @@
   </si>
   <si>
     <t>StandardMale</t>
-  </si>
-  <si>
-    <t>LeftAfferentArterioleResistance</t>
-  </si>
-  <si>
-    <t>RightAfferentArterioleResistance</t>
   </si>
   <si>
     <t>1000 s</t>
@@ -4032,7 +4026,7 @@
       </c>
       <c r="V1" s="243"/>
       <c r="W1" s="241" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="X1" s="243"/>
     </row>
@@ -4053,16 +4047,16 @@
         <v>447</v>
       </c>
       <c r="F2" s="141" t="s">
+        <v>488</v>
+      </c>
+      <c r="G2" s="133" t="s">
+        <v>489</v>
+      </c>
+      <c r="H2" s="133" t="s">
         <v>490</v>
       </c>
-      <c r="G2" s="133" t="s">
+      <c r="I2" s="142" t="s">
         <v>491</v>
-      </c>
-      <c r="H2" s="133" t="s">
-        <v>492</v>
-      </c>
-      <c r="I2" s="142" t="s">
-        <v>493</v>
       </c>
       <c r="J2" s="141" t="s">
         <v>25</v>
@@ -4092,7 +4086,7 @@
         <v>217</v>
       </c>
       <c r="S2" s="192" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="T2" s="142" t="s">
         <v>221</v>
@@ -4104,10 +4098,10 @@
         <v>458</v>
       </c>
       <c r="W2" s="141" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="X2" s="142" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -4214,7 +4208,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="131" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B5" s="143"/>
       <c r="C5" s="137"/>
@@ -4292,7 +4286,7 @@
         <v>218</v>
       </c>
       <c r="S6" s="196" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="T6" s="148" t="s">
         <v>449</v>
@@ -4362,7 +4356,7 @@
         <v>219</v>
       </c>
       <c r="S7" s="196" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="T7" s="148" t="s">
         <v>222</v>
@@ -4428,7 +4422,7 @@
         <v>220</v>
       </c>
       <c r="S8" s="196" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="T8" s="148" t="s">
         <v>39</v>
@@ -4440,7 +4434,7 @@
         <v>462</v>
       </c>
       <c r="W8" s="147" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="X8" s="148" t="s">
         <v>20</v>
@@ -4518,7 +4512,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="131" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B10" s="143"/>
       <c r="C10" s="137"/>
@@ -4546,7 +4540,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="140" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B11" s="147"/>
       <c r="C11" s="135"/>
@@ -4619,10 +4613,10 @@
         <v>22</v>
       </c>
       <c r="H13" s="135" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="I13" s="148" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J13" s="147" t="s">
         <v>22</v>
@@ -4631,7 +4625,7 @@
         <v>41</v>
       </c>
       <c r="L13" s="135" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M13" s="135" t="s">
         <v>22</v>
@@ -4640,7 +4634,7 @@
         <v>454</v>
       </c>
       <c r="O13" s="135" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="P13" s="135" t="s">
         <v>64</v>
@@ -4868,7 +4862,7 @@
         <v>66</v>
       </c>
       <c r="U16" s="147" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="V16" s="148" t="s">
         <v>205</v>
@@ -4882,7 +4876,7 @@
     </row>
     <row r="17" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="151" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B17" s="143"/>
       <c r="C17" s="137"/>
@@ -4998,7 +4992,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="140" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B21" s="147"/>
       <c r="C21" s="190"/>
@@ -5018,7 +5012,7 @@
       <c r="Q21" s="190"/>
       <c r="R21" s="190"/>
       <c r="S21" s="197" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="T21" s="191"/>
       <c r="U21" s="147"/>
@@ -5028,7 +5022,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="140" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B22" s="147"/>
       <c r="C22" s="190"/>
@@ -5058,7 +5052,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="140" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B23" s="147"/>
       <c r="C23" s="190"/>
@@ -5090,7 +5084,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="131" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B24" s="143"/>
       <c r="C24" s="137"/>
@@ -5273,7 +5267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GS82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="BZ15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -5990,16 +5984,16 @@
         <v>13</v>
       </c>
       <c r="F2" s="95" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G2" s="95" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H2" s="95" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I2" s="95" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J2" s="95" t="s">
         <v>44</v>
@@ -6098,16 +6092,16 @@
         <v>15</v>
       </c>
       <c r="AP2" s="95" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AQ2" s="95" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AR2" s="95" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AS2" s="95" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AT2" s="95" t="s">
         <v>166</v>
@@ -6122,16 +6116,16 @@
         <v>166</v>
       </c>
       <c r="AX2" s="95" t="s">
+        <v>547</v>
+      </c>
+      <c r="AY2" s="95" t="s">
         <v>549</v>
       </c>
-      <c r="AY2" s="95" t="s">
-        <v>551</v>
-      </c>
       <c r="AZ2" s="95" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="BA2" s="95" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="BB2" s="95" t="s">
         <v>163</v>
@@ -6158,16 +6152,16 @@
         <v>164</v>
       </c>
       <c r="BJ2" s="95" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="BK2" s="95" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="BL2" s="95" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="BM2" s="95" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="BN2" s="95" t="s">
         <v>170</v>
@@ -6182,16 +6176,16 @@
         <v>170</v>
       </c>
       <c r="BR2" s="95" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="BS2" s="95" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="BT2" s="95" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="BU2" s="95" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="BV2" s="95" t="s">
         <v>161</v>
@@ -6206,7 +6200,7 @@
         <v>161</v>
       </c>
       <c r="BZ2" s="95" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="CA2" s="233" t="s">
         <v>178</v>
@@ -6305,28 +6299,28 @@
         <v>48</v>
       </c>
       <c r="DG2" s="95" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="DH2" s="95" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="DI2" s="95" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="DJ2" s="95" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="DK2" s="95" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="DL2" s="95" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="DM2" s="95" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="DN2" s="95" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="DO2" s="95" t="s">
         <v>180</v>
@@ -6353,16 +6347,16 @@
         <v>181</v>
       </c>
       <c r="DW2" s="95" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="DX2" s="95" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="DY2" s="95" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="DZ2" s="95" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="EA2" s="95" t="s">
         <v>59</v>
@@ -6377,16 +6371,16 @@
         <v>59</v>
       </c>
       <c r="EE2" s="95" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="EF2" s="95" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="EG2" s="95" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="EH2" s="95" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="EI2" s="95" t="s">
         <v>49</v>
@@ -6401,40 +6395,40 @@
         <v>49</v>
       </c>
       <c r="EM2" s="95" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="EN2" s="95" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="EO2" s="95" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="EP2" s="95" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="EQ2" s="95" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="ER2" s="95" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="ES2" s="95" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="ET2" s="95" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="EU2" s="95" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="EV2" s="95" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="EW2" s="95" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="EX2" s="95" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="EY2" s="95" t="s">
         <v>107</v>
@@ -6449,16 +6443,16 @@
         <v>107</v>
       </c>
       <c r="FC2" s="95" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="FD2" s="95" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="FE2" s="95" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="FF2" s="95" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="FG2" s="95" t="s">
         <v>14</v>
@@ -6485,16 +6479,16 @@
         <v>192</v>
       </c>
       <c r="FO2" s="100" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FP2" s="100" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FQ2" s="100" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FR2" s="100" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FS2" s="100" t="s">
         <v>193</v>
@@ -6518,61 +6512,61 @@
         <v>194</v>
       </c>
       <c r="FZ2" s="95" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="GA2" s="100" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="GB2" s="100" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="GC2" s="100" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="GD2" s="100" t="s">
+        <v>681</v>
+      </c>
+      <c r="GE2" s="100" t="s">
+        <v>681</v>
+      </c>
+      <c r="GF2" s="100" t="s">
+        <v>681</v>
+      </c>
+      <c r="GG2" s="100" t="s">
+        <v>682</v>
+      </c>
+      <c r="GH2" s="100" t="s">
+        <v>682</v>
+      </c>
+      <c r="GI2" s="100" t="s">
+        <v>682</v>
+      </c>
+      <c r="GJ2" s="100" t="s">
+        <v>684</v>
+      </c>
+      <c r="GK2" s="100" t="s">
+        <v>684</v>
+      </c>
+      <c r="GL2" s="100" t="s">
+        <v>684</v>
+      </c>
+      <c r="GM2" s="100" t="s">
+        <v>680</v>
+      </c>
+      <c r="GN2" s="100" t="s">
+        <v>680</v>
+      </c>
+      <c r="GO2" s="100" t="s">
+        <v>680</v>
+      </c>
+      <c r="GP2" s="100" t="s">
         <v>683</v>
       </c>
-      <c r="GE2" s="100" t="s">
+      <c r="GQ2" s="100" t="s">
         <v>683</v>
       </c>
-      <c r="GF2" s="100" t="s">
+      <c r="GR2" s="100" t="s">
         <v>683</v>
-      </c>
-      <c r="GG2" s="100" t="s">
-        <v>684</v>
-      </c>
-      <c r="GH2" s="100" t="s">
-        <v>684</v>
-      </c>
-      <c r="GI2" s="100" t="s">
-        <v>684</v>
-      </c>
-      <c r="GJ2" s="100" t="s">
-        <v>686</v>
-      </c>
-      <c r="GK2" s="100" t="s">
-        <v>686</v>
-      </c>
-      <c r="GL2" s="100" t="s">
-        <v>686</v>
-      </c>
-      <c r="GM2" s="100" t="s">
-        <v>682</v>
-      </c>
-      <c r="GN2" s="100" t="s">
-        <v>682</v>
-      </c>
-      <c r="GO2" s="100" t="s">
-        <v>682</v>
-      </c>
-      <c r="GP2" s="100" t="s">
-        <v>685</v>
-      </c>
-      <c r="GQ2" s="100" t="s">
-        <v>685</v>
-      </c>
-      <c r="GR2" s="100" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="3" spans="1:200" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7131,7 +7125,7 @@
       <c r="AY4" s="166"/>
       <c r="AZ4" s="166"/>
       <c r="BA4" s="166" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="BB4" s="166" t="s">
         <v>17</v>
@@ -7151,7 +7145,7 @@
       <c r="BK4" s="166"/>
       <c r="BL4" s="166"/>
       <c r="BM4" s="166" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="BN4" s="166" t="s">
         <v>17</v>
@@ -7165,7 +7159,7 @@
       <c r="BS4" s="166"/>
       <c r="BT4" s="166"/>
       <c r="BU4" s="166" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="BV4" s="166" t="s">
         <v>17</v>
@@ -7174,7 +7168,7 @@
       <c r="BX4" s="166"/>
       <c r="BY4" s="229"/>
       <c r="BZ4" s="106" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="CA4" s="234" t="s">
         <v>17</v>
@@ -7330,7 +7324,7 @@
       <c r="FX4" s="177"/>
       <c r="FY4" s="177"/>
       <c r="FZ4" s="176" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="GA4" s="177"/>
       <c r="GB4" s="177"/>
@@ -7353,7 +7347,7 @@
     </row>
     <row r="5" spans="1:200" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B5" s="101"/>
       <c r="C5" s="101"/>
@@ -7376,25 +7370,25 @@
       <c r="T5" s="87"/>
       <c r="U5" s="87"/>
       <c r="V5" s="87" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="W5" s="87"/>
       <c r="X5" s="87"/>
       <c r="Y5" s="87"/>
       <c r="Z5" s="87" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AA5" s="87"/>
       <c r="AB5" s="87"/>
       <c r="AC5" s="87"/>
       <c r="AD5" s="87" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AE5" s="87"/>
       <c r="AF5" s="87"/>
       <c r="AG5" s="87"/>
       <c r="AH5" s="87" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AI5" s="87"/>
       <c r="AJ5" s="87"/>
@@ -7445,13 +7439,13 @@
       <c r="CC5" s="106"/>
       <c r="CD5" s="106"/>
       <c r="CE5" s="106" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="CF5" s="106"/>
       <c r="CG5" s="106"/>
       <c r="CH5" s="106"/>
       <c r="CI5" s="106" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="CJ5" s="106"/>
       <c r="CK5" s="106"/>
@@ -7461,25 +7455,25 @@
       <c r="CO5" s="106"/>
       <c r="CP5" s="106"/>
       <c r="CQ5" s="106" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="CR5" s="106"/>
       <c r="CS5" s="106"/>
       <c r="CT5" s="106"/>
       <c r="CU5" s="106" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="CV5" s="106"/>
       <c r="CW5" s="106"/>
       <c r="CX5" s="106"/>
       <c r="CY5" s="106" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="CZ5" s="106"/>
       <c r="DA5" s="106"/>
       <c r="DB5" s="106"/>
       <c r="DC5" s="106" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="DD5" s="106"/>
       <c r="DE5" s="106"/>
@@ -7489,13 +7483,13 @@
       <c r="DI5" s="106"/>
       <c r="DJ5" s="106"/>
       <c r="DK5" s="106" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="DL5" s="106"/>
       <c r="DM5" s="106"/>
       <c r="DN5" s="106"/>
       <c r="DO5" s="106" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="DP5" s="106"/>
       <c r="DQ5" s="106"/>
@@ -7505,13 +7499,13 @@
       <c r="DU5" s="106"/>
       <c r="DV5" s="106"/>
       <c r="DW5" s="106" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="DX5" s="106"/>
       <c r="DY5" s="106"/>
       <c r="DZ5" s="106"/>
       <c r="EA5" s="106" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="EB5" s="106"/>
       <c r="EC5" s="106"/>
@@ -7521,13 +7515,13 @@
       <c r="EG5" s="106"/>
       <c r="EH5" s="106"/>
       <c r="EI5" s="106" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="EJ5" s="106"/>
       <c r="EK5" s="106"/>
       <c r="EL5" s="106"/>
       <c r="EM5" s="106" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="EN5" s="106"/>
       <c r="EO5" s="106"/>
@@ -7598,12 +7592,12 @@
       <c r="D6" s="101"/>
       <c r="E6" s="101"/>
       <c r="F6" s="101" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G6" s="101"/>
       <c r="H6" s="101"/>
       <c r="I6" s="101" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J6" s="98" t="s">
         <v>202</v>
@@ -7670,7 +7664,7 @@
       <c r="BP6" s="166"/>
       <c r="BQ6" s="166"/>
       <c r="BR6" s="166" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="BS6" s="166"/>
       <c r="BT6" s="166"/>
@@ -7680,7 +7674,7 @@
       <c r="BX6" s="166"/>
       <c r="BY6" s="229"/>
       <c r="BZ6" s="106" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="CA6" s="234" t="s">
         <v>120</v>
@@ -7689,7 +7683,7 @@
       <c r="CC6" s="106"/>
       <c r="CD6" s="106"/>
       <c r="CE6" s="106" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="CF6" s="106"/>
       <c r="CG6" s="106"/>
@@ -7743,7 +7737,7 @@
       <c r="EC6" s="106"/>
       <c r="ED6" s="106"/>
       <c r="EE6" s="106" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="EF6" s="106"/>
       <c r="EG6" s="106"/>
@@ -7878,7 +7872,7 @@
       <c r="BH7" s="166"/>
       <c r="BI7" s="166"/>
       <c r="BJ7" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="BK7" s="166"/>
       <c r="BL7" s="166"/>
@@ -7888,7 +7882,7 @@
       <c r="BP7" s="166"/>
       <c r="BQ7" s="166"/>
       <c r="BR7" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="BS7" s="166"/>
       <c r="BT7" s="166"/>
@@ -8233,7 +8227,7 @@
     </row>
     <row r="9" spans="1:200" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B9" s="101"/>
       <c r="C9" s="101"/>
@@ -8256,25 +8250,25 @@
       <c r="T9" s="87"/>
       <c r="U9" s="87"/>
       <c r="V9" s="87" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="W9" s="87"/>
       <c r="X9" s="87"/>
       <c r="Y9" s="87"/>
       <c r="Z9" s="84" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AA9" s="87"/>
       <c r="AB9" s="87"/>
       <c r="AC9" s="87"/>
       <c r="AD9" s="84" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AE9" s="87"/>
       <c r="AF9" s="87"/>
       <c r="AG9" s="87"/>
       <c r="AH9" s="87" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AI9" s="87"/>
       <c r="AJ9" s="87"/>
@@ -8454,7 +8448,7 @@
       <c r="D10" s="101"/>
       <c r="E10" s="101"/>
       <c r="F10" s="101" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G10" s="101"/>
       <c r="H10" s="101"/>
@@ -8490,7 +8484,7 @@
       <c r="AB10" s="87"/>
       <c r="AC10" s="87"/>
       <c r="AD10" s="87" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AE10" s="87"/>
       <c r="AF10" s="87"/>
@@ -8508,7 +8502,7 @@
       <c r="AN10" s="175"/>
       <c r="AO10" s="175"/>
       <c r="AP10" s="161" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AQ10" s="161"/>
       <c r="AR10" s="161"/>
@@ -8520,7 +8514,7 @@
       <c r="AV10" s="161"/>
       <c r="AW10" s="161"/>
       <c r="AX10" s="166" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AY10" s="166"/>
       <c r="AZ10" s="166"/>
@@ -8550,7 +8544,7 @@
       <c r="BP10" s="166"/>
       <c r="BQ10" s="166"/>
       <c r="BR10" s="166" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="BS10" s="166"/>
       <c r="BT10" s="166"/>
@@ -8562,7 +8556,7 @@
       <c r="BX10" s="166"/>
       <c r="BY10" s="229"/>
       <c r="BZ10" s="106" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="CA10" s="234" t="s">
         <v>281</v>
@@ -8571,13 +8565,13 @@
       <c r="CC10" s="106"/>
       <c r="CD10" s="106"/>
       <c r="CE10" s="106" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="CF10" s="106"/>
       <c r="CG10" s="106"/>
       <c r="CH10" s="106"/>
       <c r="CI10" s="106" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="CJ10" s="106"/>
       <c r="CK10" s="106"/>
@@ -8613,17 +8607,17 @@
       <c r="DE10" s="106"/>
       <c r="DF10" s="106"/>
       <c r="DG10" s="106" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="DH10" s="106"/>
       <c r="DI10" s="106"/>
       <c r="DJ10" s="106"/>
       <c r="DK10" s="106" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="DL10" s="106"/>
       <c r="DM10" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="DN10" s="106"/>
       <c r="DO10" s="106" t="s">
@@ -8639,7 +8633,7 @@
       <c r="DU10" s="106"/>
       <c r="DV10" s="106"/>
       <c r="DW10" s="106" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="DX10" s="106"/>
       <c r="DY10" s="106"/>
@@ -8651,7 +8645,7 @@
       <c r="EC10" s="106"/>
       <c r="ED10" s="106"/>
       <c r="EE10" s="106" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="EF10" s="106"/>
       <c r="EG10" s="106"/>
@@ -8663,21 +8657,21 @@
       <c r="EK10" s="106"/>
       <c r="EL10" s="106"/>
       <c r="EM10" s="106" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="EN10" s="106"/>
       <c r="EO10" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="EP10" s="106"/>
       <c r="EQ10" s="106" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="ER10" s="106"/>
       <c r="ES10" s="106"/>
       <c r="ET10" s="106"/>
       <c r="EU10" s="106" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="EV10" s="106"/>
       <c r="EW10" s="106"/>
@@ -8705,7 +8699,7 @@
       <c r="FM10" s="177"/>
       <c r="FN10" s="177"/>
       <c r="FO10" s="176" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="FP10" s="177"/>
       <c r="FQ10" s="177"/>
@@ -8960,22 +8954,22 @@
         <v>70</v>
       </c>
       <c r="B12" s="101" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C12" s="101"/>
       <c r="D12" s="101"/>
       <c r="E12" s="101"/>
       <c r="F12" s="101" t="s">
+        <v>522</v>
+      </c>
+      <c r="G12" s="101" t="s">
+        <v>526</v>
+      </c>
+      <c r="H12" s="101" t="s">
         <v>524</v>
       </c>
-      <c r="G12" s="101" t="s">
-        <v>528</v>
-      </c>
-      <c r="H12" s="101" t="s">
-        <v>526</v>
-      </c>
       <c r="I12" s="101" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J12" s="98" t="s">
         <v>97</v>
@@ -8984,7 +8978,7 @@
       <c r="L12" s="101"/>
       <c r="M12" s="101"/>
       <c r="N12" s="98" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="O12" s="101"/>
       <c r="P12" s="101"/>
@@ -9051,13 +9045,13 @@
       <c r="BY12" s="229"/>
       <c r="BZ12" s="106"/>
       <c r="CA12" s="234" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="CB12" s="106"/>
       <c r="CC12" s="106"/>
       <c r="CD12" s="106"/>
       <c r="CE12" s="106" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="CF12" s="106"/>
       <c r="CG12" s="106"/>
@@ -9655,7 +9649,7 @@
     </row>
     <row r="14" spans="1:200" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B14" s="109"/>
       <c r="C14" s="109"/>
@@ -9865,7 +9859,7 @@
     </row>
     <row r="15" spans="1:200" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B15" s="109"/>
       <c r="C15" s="109"/>
@@ -10075,7 +10069,7 @@
     </row>
     <row r="16" spans="1:200" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="62" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B16" s="109"/>
       <c r="C16" s="109"/>
@@ -10155,7 +10149,7 @@
       <c r="BY16" s="229"/>
       <c r="BZ16" s="154"/>
       <c r="CA16" s="235" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="CB16" s="110"/>
       <c r="CC16" s="110"/>
@@ -10213,7 +10207,7 @@
       <c r="EC16" s="110"/>
       <c r="ED16" s="110"/>
       <c r="EE16" s="182" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="EF16" s="110"/>
       <c r="EG16" s="110"/>
@@ -10262,7 +10256,7 @@
       <c r="FX16" s="176"/>
       <c r="FY16" s="176"/>
       <c r="FZ16" s="178" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="GA16" s="176"/>
       <c r="GB16" s="176"/>
@@ -11173,10 +11167,10 @@
       </c>
       <c r="DL19" s="106"/>
       <c r="DM19" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="DN19" s="106" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="DO19" s="106">
         <v>1</v>
@@ -11219,10 +11213,10 @@
       </c>
       <c r="EN19" s="106"/>
       <c r="EO19" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="EP19" s="106" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="EQ19" s="106">
         <v>0.97</v>
@@ -11391,7 +11385,7 @@
       <c r="CG20" s="106"/>
       <c r="CH20" s="106"/>
       <c r="CI20" s="106" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="CJ20" s="106"/>
       <c r="CK20" s="106"/>
@@ -11403,25 +11397,25 @@
       <c r="CO20" s="106"/>
       <c r="CP20" s="106"/>
       <c r="CQ20" s="106" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="CR20" s="106"/>
       <c r="CS20" s="106"/>
       <c r="CT20" s="106"/>
       <c r="CU20" s="106" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="CV20" s="106"/>
       <c r="CW20" s="106"/>
       <c r="CX20" s="106"/>
       <c r="CY20" s="106" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="CZ20" s="106"/>
       <c r="DA20" s="106"/>
       <c r="DB20" s="106"/>
       <c r="DC20" s="106" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="DD20" s="106"/>
       <c r="DE20" s="106"/>
@@ -11451,13 +11445,13 @@
       <c r="DU20" s="106"/>
       <c r="DV20" s="106"/>
       <c r="DW20" s="106" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="DX20" s="106"/>
       <c r="DY20" s="106"/>
       <c r="DZ20" s="106"/>
       <c r="EA20" s="106" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="EB20" s="106"/>
       <c r="EC20" s="106"/>
@@ -11475,7 +11469,7 @@
       <c r="EK20" s="106"/>
       <c r="EL20" s="106"/>
       <c r="EM20" s="106" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="EN20" s="106"/>
       <c r="EO20" s="106"/>
@@ -11487,7 +11481,7 @@
       <c r="ES20" s="106"/>
       <c r="ET20" s="106"/>
       <c r="EU20" s="106" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="EV20" s="106"/>
       <c r="EW20" s="106"/>
@@ -11632,10 +11626,10 @@
       <c r="BX21" s="166"/>
       <c r="BY21" s="229"/>
       <c r="BZ21" s="106" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="CA21" s="234" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="CB21" s="106"/>
       <c r="CC21" s="106"/>
@@ -11647,7 +11641,7 @@
       <c r="CG21" s="106"/>
       <c r="CH21" s="106"/>
       <c r="CI21" s="106" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="CJ21" s="106"/>
       <c r="CK21" s="106"/>
@@ -11665,7 +11659,7 @@
       <c r="CS21" s="106"/>
       <c r="CT21" s="106"/>
       <c r="CU21" s="106" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="CV21" s="106"/>
       <c r="CW21" s="106"/>
@@ -11689,14 +11683,14 @@
       <c r="DI21" s="106"/>
       <c r="DJ21" s="106"/>
       <c r="DK21" s="106" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="DL21" s="106"/>
       <c r="DM21" s="106" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="DN21" s="106" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="DO21" s="106" t="s">
         <v>122</v>
@@ -11735,23 +11729,23 @@
       <c r="EK21" s="106"/>
       <c r="EL21" s="106"/>
       <c r="EM21" s="106" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="EN21" s="106"/>
       <c r="EO21" s="106" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="EP21" s="106" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="EQ21" s="106" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="ER21" s="106"/>
       <c r="ES21" s="106"/>
       <c r="ET21" s="106"/>
       <c r="EU21" s="106" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="EV21" s="106"/>
       <c r="EW21" s="106"/>
@@ -11852,29 +11846,29 @@
       <c r="AJ22" s="87"/>
       <c r="AK22" s="87"/>
       <c r="AL22" s="161" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AM22" s="175"/>
       <c r="AN22" s="175"/>
       <c r="AO22" s="175"/>
       <c r="AP22" s="161" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AQ22" s="161" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AR22" s="161" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AS22" s="161"/>
       <c r="AT22" s="164" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AU22" s="161" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AV22" s="161" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AW22" s="161"/>
       <c r="AX22" s="166"/>
@@ -11890,7 +11884,7 @@
       <c r="BH22" s="166"/>
       <c r="BI22" s="166"/>
       <c r="BJ22" s="166" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="BK22" s="166"/>
       <c r="BL22" s="166"/>
@@ -11911,7 +11905,7 @@
         <v>273</v>
       </c>
       <c r="CA22" s="234" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="CB22" s="106"/>
       <c r="CC22" s="106"/>
@@ -11923,7 +11917,7 @@
       <c r="CG22" s="106"/>
       <c r="CH22" s="106"/>
       <c r="CI22" s="106" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="CJ22" s="106"/>
       <c r="CK22" s="106"/>
@@ -11935,7 +11929,7 @@
       <c r="CO22" s="106"/>
       <c r="CP22" s="106"/>
       <c r="CQ22" s="106" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="CR22" s="106"/>
       <c r="CS22" s="106"/>
@@ -11947,34 +11941,34 @@
       <c r="CW22" s="106"/>
       <c r="CX22" s="106"/>
       <c r="CY22" s="106" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="CZ22" s="106"/>
       <c r="DA22" s="106"/>
       <c r="DB22" s="106"/>
       <c r="DC22" s="106" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="DD22" s="106"/>
       <c r="DE22" s="106"/>
       <c r="DF22" s="106"/>
       <c r="DG22" s="106" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="DH22" s="106"/>
       <c r="DI22" s="106" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="DJ22" s="106"/>
       <c r="DK22" s="106" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="DL22" s="106"/>
       <c r="DM22" s="106" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="DN22" s="106" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="DO22" s="106" t="s">
         <v>186</v>
@@ -11989,47 +11983,47 @@
       <c r="DU22" s="106"/>
       <c r="DV22" s="106"/>
       <c r="DW22" s="106" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="DX22" s="106"/>
       <c r="DY22" s="106"/>
       <c r="DZ22" s="106"/>
       <c r="EA22" s="106" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="EB22" s="106"/>
       <c r="EC22" s="106"/>
       <c r="ED22" s="106"/>
       <c r="EE22" s="106" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="EF22" s="106"/>
       <c r="EG22" s="106"/>
       <c r="EH22" s="106"/>
       <c r="EI22" s="106" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="EJ22" s="106"/>
       <c r="EK22" s="106"/>
       <c r="EL22" s="106"/>
       <c r="EM22" s="106" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="EN22" s="106"/>
       <c r="EO22" s="106" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="EP22" s="106" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="EQ22" s="106" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="ER22" s="106"/>
       <c r="ES22" s="106"/>
       <c r="ET22" s="106"/>
       <c r="EU22" s="106" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="EV22" s="106"/>
       <c r="EW22" s="106"/>
@@ -12642,7 +12636,7 @@
       <c r="BX24" s="166"/>
       <c r="BY24" s="229"/>
       <c r="BZ24" s="106" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="CA24" s="234" t="str">
         <f>CA21</f>
@@ -12770,14 +12764,14 @@
       <c r="DI24" s="106"/>
       <c r="DJ24" s="106"/>
       <c r="DK24" s="106" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="DL24" s="106"/>
       <c r="DM24" s="106" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="DN24" s="106" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="DO24" s="106" t="str">
         <f t="shared" si="0"/>
@@ -12857,23 +12851,23 @@
       <c r="EK24" s="106"/>
       <c r="EL24" s="106"/>
       <c r="EM24" s="106" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="EN24" s="106"/>
       <c r="EO24" s="106" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="EP24" s="106" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="EQ24" s="106" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="ER24" s="106"/>
       <c r="ES24" s="106"/>
       <c r="ET24" s="106"/>
       <c r="EU24" s="106" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="EV24" s="106"/>
       <c r="EW24" s="106"/>
@@ -14123,7 +14117,7 @@
     </row>
     <row r="29" spans="1:200" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="80" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B29" s="98"/>
       <c r="C29" s="98"/>
@@ -14142,37 +14136,37 @@
       <c r="P29" s="98"/>
       <c r="Q29" s="98"/>
       <c r="R29" s="87" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="S29" s="87"/>
       <c r="T29" s="87"/>
       <c r="U29" s="87"/>
       <c r="V29" s="87" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="W29" s="81" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="X29" s="87" t="s">
         <v>262</v>
       </c>
       <c r="Y29" s="87" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="Z29" s="83" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="AA29" s="87"/>
       <c r="AB29" s="87"/>
       <c r="AC29" s="87"/>
       <c r="AD29" s="83" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="AE29" s="87"/>
       <c r="AF29" s="87"/>
       <c r="AG29" s="87"/>
       <c r="AH29" s="83" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="AI29" s="89"/>
       <c r="AJ29" s="89"/>
@@ -14190,13 +14184,13 @@
       <c r="AV29" s="161"/>
       <c r="AW29" s="161"/>
       <c r="AX29" s="166" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="AY29" s="166"/>
       <c r="AZ29" s="166"/>
       <c r="BA29" s="166"/>
       <c r="BB29" s="166" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="BC29" s="166">
         <v>0</v>
@@ -14205,13 +14199,13 @@
         <v>262</v>
       </c>
       <c r="BE29" s="166" t="s">
+        <v>788</v>
+      </c>
+      <c r="BF29" s="166" t="s">
+        <v>789</v>
+      </c>
+      <c r="BG29" s="166" t="s">
         <v>790</v>
-      </c>
-      <c r="BF29" s="166" t="s">
-        <v>791</v>
-      </c>
-      <c r="BG29" s="166" t="s">
-        <v>792</v>
       </c>
       <c r="BH29" s="166" t="s">
         <v>262</v>
@@ -14220,18 +14214,18 @@
         <v>331</v>
       </c>
       <c r="BJ29" s="166" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="BK29" s="166" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="BL29" s="166"/>
       <c r="BM29" s="166"/>
       <c r="BN29" s="166" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="BO29" s="166" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="BP29" s="166" t="s">
         <v>262</v>
@@ -14244,7 +14238,7 @@
       <c r="BT29" s="166"/>
       <c r="BU29" s="166"/>
       <c r="BV29" s="166" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="BW29" s="166"/>
       <c r="BX29" s="166"/>
@@ -14327,7 +14321,7 @@
       <c r="EW29" s="106"/>
       <c r="EX29" s="106"/>
       <c r="EY29" s="176" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="EZ29" s="176"/>
       <c r="FA29" s="176"/>
@@ -14985,7 +14979,7 @@
       </c>
       <c r="DH31" s="106"/>
       <c r="DI31" s="106" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="DJ31" s="106"/>
       <c r="DK31" s="106">
@@ -15227,7 +15221,7 @@
       </c>
       <c r="DH32" s="106"/>
       <c r="DI32" s="106" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="DJ32" s="106"/>
       <c r="DK32" s="106" t="s">
@@ -15277,7 +15271,7 @@
       <c r="EO32" s="106"/>
       <c r="EP32" s="106"/>
       <c r="EQ32" s="106" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="ER32" s="106"/>
       <c r="ES32" s="106"/>
@@ -15469,7 +15463,7 @@
       </c>
       <c r="DH33" s="106"/>
       <c r="DI33" s="106" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="DJ33" s="106"/>
       <c r="DK33" s="106">
@@ -15778,7 +15772,7 @@
       </c>
       <c r="DH34" s="106"/>
       <c r="DI34" s="106" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="DJ34" s="106"/>
       <c r="DK34" s="106">
@@ -16300,7 +16294,7 @@
       </c>
       <c r="DH36" s="106"/>
       <c r="DI36" s="106" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="DJ36" s="106"/>
       <c r="DK36" s="106">
@@ -16410,7 +16404,7 @@
     </row>
     <row r="37" spans="1:200" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B37" s="98"/>
       <c r="C37" s="98"/>
@@ -16650,7 +16644,7 @@
     </row>
     <row r="38" spans="1:200" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="60" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B38" s="98"/>
       <c r="C38" s="98"/>
@@ -17366,7 +17360,7 @@
     </row>
     <row r="40" spans="1:200" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="156" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B40" s="99"/>
       <c r="C40" s="99"/>
@@ -17405,7 +17399,7 @@
       <c r="AJ40" s="89"/>
       <c r="AK40" s="87"/>
       <c r="AL40" s="164" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AM40" s="161"/>
       <c r="AN40" s="161"/>
@@ -17447,100 +17441,100 @@
       <c r="BX40" s="166"/>
       <c r="BY40" s="229"/>
       <c r="BZ40" s="110" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="CA40" s="207" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="CB40" s="110"/>
       <c r="CC40" s="110"/>
       <c r="CD40" s="110"/>
       <c r="CE40" s="110" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="CF40" s="110"/>
       <c r="CG40" s="110"/>
       <c r="CH40" s="110"/>
       <c r="CI40" s="110" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="CJ40" s="110"/>
       <c r="CK40" s="110"/>
       <c r="CL40" s="110"/>
       <c r="CM40" s="110" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="CN40" s="110"/>
       <c r="CO40" s="110"/>
       <c r="CP40" s="110"/>
       <c r="CQ40" s="110" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="CR40" s="110"/>
       <c r="CS40" s="110"/>
       <c r="CT40" s="110"/>
       <c r="CU40" s="110" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="CV40" s="110"/>
       <c r="CW40" s="110"/>
       <c r="CX40" s="110"/>
       <c r="CY40" s="110" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="CZ40" s="110"/>
       <c r="DA40" s="110"/>
       <c r="DB40" s="110"/>
       <c r="DC40" s="110" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="DD40" s="110"/>
       <c r="DE40" s="110"/>
       <c r="DF40" s="110"/>
       <c r="DG40" s="184" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="DH40" s="110"/>
       <c r="DI40" s="110"/>
       <c r="DJ40" s="110"/>
       <c r="DK40" s="110" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="DL40" s="110"/>
       <c r="DM40" s="110"/>
       <c r="DN40" s="110"/>
       <c r="DO40" s="110" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="DP40" s="110"/>
       <c r="DQ40" s="110"/>
       <c r="DR40" s="110"/>
       <c r="DS40" s="110" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="DT40" s="110"/>
       <c r="DU40" s="110"/>
       <c r="DV40" s="110"/>
       <c r="DW40" s="110" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="DX40" s="110"/>
       <c r="DY40" s="110"/>
       <c r="DZ40" s="110"/>
       <c r="EA40" s="110" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="EB40" s="110"/>
       <c r="EC40" s="110"/>
       <c r="ED40" s="110"/>
       <c r="EE40" s="110" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="EF40" s="110"/>
       <c r="EG40" s="110"/>
       <c r="EH40" s="110"/>
       <c r="EI40" s="110" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="EJ40" s="184"/>
       <c r="EK40" s="184"/>
@@ -17550,13 +17544,13 @@
       <c r="EO40" s="184"/>
       <c r="EP40" s="184"/>
       <c r="EQ40" s="208" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="ER40" s="184"/>
       <c r="ES40" s="184"/>
       <c r="ET40" s="184"/>
       <c r="EU40" s="184" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="EV40" s="184"/>
       <c r="EW40" s="184"/>
@@ -17610,7 +17604,7 @@
     </row>
     <row r="41" spans="1:200" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="62" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B41" s="109"/>
       <c r="C41" s="109"/>
@@ -17893,14 +17887,14 @@
       <c r="AJ42" s="88"/>
       <c r="AK42" s="88"/>
       <c r="AL42" s="164" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="AM42" s="161"/>
       <c r="AN42" s="161" t="s">
         <v>262</v>
       </c>
       <c r="AO42" s="161" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="AP42" s="161"/>
       <c r="AQ42" s="161"/>
@@ -17939,100 +17933,100 @@
       <c r="BX42" s="166"/>
       <c r="BY42" s="229"/>
       <c r="BZ42" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CA42" s="110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="CB42" s="110"/>
       <c r="CC42" s="110"/>
       <c r="CD42" s="110"/>
       <c r="CE42" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CF42" s="110"/>
       <c r="CG42" s="110"/>
       <c r="CH42" s="110"/>
       <c r="CI42" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CJ42" s="110"/>
       <c r="CK42" s="110"/>
       <c r="CL42" s="110"/>
       <c r="CM42" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CN42" s="110"/>
       <c r="CO42" s="110"/>
       <c r="CP42" s="110"/>
       <c r="CQ42" s="110" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="CR42" s="110"/>
       <c r="CS42" s="110"/>
       <c r="CT42" s="110"/>
       <c r="CU42" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CV42" s="110"/>
       <c r="CW42" s="110"/>
       <c r="CX42" s="110"/>
       <c r="CY42" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CZ42" s="110"/>
       <c r="DA42" s="110"/>
       <c r="DB42" s="110"/>
       <c r="DC42" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DD42" s="110"/>
       <c r="DE42" s="110"/>
       <c r="DF42" s="110"/>
       <c r="DG42" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DH42" s="110"/>
       <c r="DI42" s="110"/>
       <c r="DJ42" s="110"/>
       <c r="DK42" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DL42" s="110"/>
       <c r="DM42" s="110"/>
       <c r="DN42" s="110"/>
       <c r="DO42" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DP42" s="110"/>
       <c r="DQ42" s="110"/>
       <c r="DR42" s="110"/>
       <c r="DS42" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DT42" s="110"/>
       <c r="DU42" s="110"/>
       <c r="DV42" s="110"/>
       <c r="DW42" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DX42" s="110"/>
       <c r="DY42" s="110"/>
       <c r="DZ42" s="110"/>
       <c r="EA42" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EB42" s="110"/>
       <c r="EC42" s="110"/>
       <c r="ED42" s="110"/>
       <c r="EE42" s="110" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="EF42" s="110"/>
       <c r="EG42" s="110"/>
       <c r="EH42" s="110"/>
       <c r="EI42" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EJ42" s="110"/>
       <c r="EK42" s="110"/>
@@ -18042,13 +18036,13 @@
       <c r="EO42" s="110"/>
       <c r="EP42" s="110"/>
       <c r="EQ42" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="ER42" s="110"/>
       <c r="ES42" s="110"/>
       <c r="ET42" s="110"/>
       <c r="EU42" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EV42" s="110"/>
       <c r="EW42" s="110"/>
@@ -18102,7 +18096,7 @@
     </row>
     <row r="43" spans="1:200" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="62" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B43" s="109"/>
       <c r="C43" s="109"/>
@@ -18153,7 +18147,7 @@
         <v>260</v>
       </c>
       <c r="AL43" s="164" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AM43" s="161"/>
       <c r="AN43" s="161"/>
@@ -18243,100 +18237,100 @@
         <v>260</v>
       </c>
       <c r="BZ43" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CA43" s="110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="CB43" s="110"/>
       <c r="CC43" s="110"/>
       <c r="CD43" s="110"/>
       <c r="CE43" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CF43" s="110"/>
       <c r="CG43" s="110"/>
       <c r="CH43" s="110"/>
       <c r="CI43" s="110" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="CJ43" s="110"/>
       <c r="CK43" s="110"/>
       <c r="CL43" s="110"/>
       <c r="CM43" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CN43" s="110"/>
       <c r="CO43" s="110"/>
       <c r="CP43" s="110"/>
       <c r="CQ43" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CR43" s="110"/>
       <c r="CS43" s="110"/>
       <c r="CT43" s="110"/>
       <c r="CU43" s="110" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="CV43" s="110"/>
       <c r="CW43" s="110"/>
       <c r="CX43" s="110"/>
       <c r="CY43" s="110" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="CZ43" s="110"/>
       <c r="DA43" s="110"/>
       <c r="DB43" s="110"/>
       <c r="DC43" s="110" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="DD43" s="110"/>
       <c r="DE43" s="110"/>
       <c r="DF43" s="110"/>
       <c r="DG43" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DH43" s="110"/>
       <c r="DI43" s="110"/>
       <c r="DJ43" s="110"/>
       <c r="DK43" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DL43" s="110"/>
       <c r="DM43" s="110"/>
       <c r="DN43" s="110"/>
       <c r="DO43" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DP43" s="110"/>
       <c r="DQ43" s="110"/>
       <c r="DR43" s="110"/>
       <c r="DS43" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DT43" s="110"/>
       <c r="DU43" s="110"/>
       <c r="DV43" s="110"/>
       <c r="DW43" s="110" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="DX43" s="110"/>
       <c r="DY43" s="110"/>
       <c r="DZ43" s="110"/>
       <c r="EA43" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EB43" s="110"/>
       <c r="EC43" s="110"/>
       <c r="ED43" s="110"/>
       <c r="EE43" s="110" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="EF43" s="110"/>
       <c r="EG43" s="110"/>
       <c r="EH43" s="110"/>
       <c r="EI43" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EJ43" s="110"/>
       <c r="EK43" s="110"/>
@@ -18346,13 +18340,13 @@
       <c r="EO43" s="110"/>
       <c r="EP43" s="206"/>
       <c r="EQ43" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="ER43" s="207"/>
       <c r="ES43" s="207"/>
       <c r="ET43" s="207"/>
       <c r="EU43" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EV43" s="110"/>
       <c r="EW43" s="110"/>
@@ -18445,7 +18439,7 @@
       <c r="AJ44" s="88"/>
       <c r="AK44" s="88"/>
       <c r="AL44" s="164" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AM44" s="161"/>
       <c r="AN44" s="161"/>
@@ -18487,100 +18481,100 @@
       <c r="BX44" s="166"/>
       <c r="BY44" s="229"/>
       <c r="BZ44" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CA44" s="110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="CB44" s="110"/>
       <c r="CC44" s="110"/>
       <c r="CD44" s="110"/>
       <c r="CE44" s="110" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="CF44" s="110"/>
       <c r="CG44" s="110"/>
       <c r="CH44" s="110"/>
       <c r="CI44" s="110" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="CJ44" s="110"/>
       <c r="CK44" s="110"/>
       <c r="CL44" s="110"/>
       <c r="CM44" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CN44" s="110"/>
       <c r="CO44" s="110"/>
       <c r="CP44" s="110"/>
       <c r="CQ44" s="110" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="CR44" s="110"/>
       <c r="CS44" s="110"/>
       <c r="CT44" s="110"/>
       <c r="CU44" s="110" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="CV44" s="110"/>
       <c r="CW44" s="110"/>
       <c r="CX44" s="110"/>
       <c r="CY44" s="110" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="CZ44" s="110"/>
       <c r="DA44" s="110"/>
       <c r="DB44" s="110"/>
       <c r="DC44" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DD44" s="110"/>
       <c r="DE44" s="110"/>
       <c r="DF44" s="110"/>
       <c r="DG44" s="110" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="DH44" s="110"/>
       <c r="DI44" s="110"/>
       <c r="DJ44" s="110"/>
       <c r="DK44" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DL44" s="110"/>
       <c r="DM44" s="110"/>
       <c r="DN44" s="110"/>
       <c r="DO44" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DP44" s="110"/>
       <c r="DQ44" s="110"/>
       <c r="DR44" s="110"/>
       <c r="DS44" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DT44" s="110"/>
       <c r="DU44" s="110"/>
       <c r="DV44" s="110"/>
       <c r="DW44" s="110" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="DX44" s="110"/>
       <c r="DY44" s="110"/>
       <c r="DZ44" s="110"/>
       <c r="EA44" s="110" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="EB44" s="110"/>
       <c r="EC44" s="110"/>
       <c r="ED44" s="110"/>
       <c r="EE44" s="110" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="EF44" s="110"/>
       <c r="EG44" s="110"/>
       <c r="EH44" s="110"/>
       <c r="EI44" s="110" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="EJ44" s="110"/>
       <c r="EK44" s="110"/>
@@ -18590,13 +18584,13 @@
       <c r="EO44" s="110"/>
       <c r="EP44" s="110"/>
       <c r="EQ44" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="ER44" s="110"/>
       <c r="ES44" s="110"/>
       <c r="ET44" s="110"/>
       <c r="EU44" s="110" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="EV44" s="110"/>
       <c r="EW44" s="110"/>
@@ -18650,7 +18644,7 @@
     </row>
     <row r="45" spans="1:200" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="62" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B45" s="109"/>
       <c r="C45" s="109"/>
@@ -18689,7 +18683,7 @@
       <c r="AJ45" s="88"/>
       <c r="AK45" s="88"/>
       <c r="AL45" s="164" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AM45" s="161"/>
       <c r="AN45" s="161"/>
@@ -18731,100 +18725,100 @@
       <c r="BX45" s="166"/>
       <c r="BY45" s="229"/>
       <c r="BZ45" s="110" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="CA45" s="110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="CB45" s="110"/>
       <c r="CC45" s="110"/>
       <c r="CD45" s="110"/>
       <c r="CE45" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CF45" s="110"/>
       <c r="CG45" s="110"/>
       <c r="CH45" s="110"/>
       <c r="CI45" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CJ45" s="110"/>
       <c r="CK45" s="110"/>
       <c r="CL45" s="110"/>
       <c r="CM45" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CN45" s="110"/>
       <c r="CO45" s="110"/>
       <c r="CP45" s="110"/>
       <c r="CQ45" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CR45" s="110"/>
       <c r="CS45" s="110"/>
       <c r="CT45" s="110"/>
       <c r="CU45" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CV45" s="110"/>
       <c r="CW45" s="110"/>
       <c r="CX45" s="110"/>
       <c r="CY45" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CZ45" s="110"/>
       <c r="DA45" s="110"/>
       <c r="DB45" s="110"/>
       <c r="DC45" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DD45" s="110"/>
       <c r="DE45" s="110"/>
       <c r="DF45" s="110"/>
       <c r="DG45" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DH45" s="110"/>
       <c r="DI45" s="110"/>
       <c r="DJ45" s="110"/>
       <c r="DK45" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DL45" s="110"/>
       <c r="DM45" s="110"/>
       <c r="DN45" s="110"/>
       <c r="DO45" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DP45" s="110"/>
       <c r="DQ45" s="110"/>
       <c r="DR45" s="110"/>
       <c r="DS45" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DT45" s="110"/>
       <c r="DU45" s="110"/>
       <c r="DV45" s="110"/>
       <c r="DW45" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DX45" s="110"/>
       <c r="DY45" s="110"/>
       <c r="DZ45" s="110"/>
       <c r="EA45" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EB45" s="110"/>
       <c r="EC45" s="110"/>
       <c r="ED45" s="110"/>
       <c r="EE45" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EF45" s="110"/>
       <c r="EG45" s="110"/>
       <c r="EH45" s="110"/>
       <c r="EI45" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EJ45" s="110"/>
       <c r="EK45" s="110"/>
@@ -18834,13 +18828,13 @@
       <c r="EO45" s="110"/>
       <c r="EP45" s="206"/>
       <c r="EQ45" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="ER45" s="207"/>
       <c r="ES45" s="207"/>
       <c r="ET45" s="207"/>
       <c r="EU45" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EV45" s="110"/>
       <c r="EW45" s="110"/>
@@ -18933,7 +18927,7 @@
       <c r="AJ46" s="88"/>
       <c r="AK46" s="88"/>
       <c r="AL46" s="164" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AM46" s="161"/>
       <c r="AN46" s="161"/>
@@ -18975,100 +18969,100 @@
       <c r="BX46" s="166"/>
       <c r="BY46" s="229"/>
       <c r="BZ46" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CA46" s="207" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="CB46" s="110"/>
       <c r="CC46" s="110"/>
       <c r="CD46" s="110"/>
       <c r="CE46" s="110" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="CF46" s="110"/>
       <c r="CG46" s="110"/>
       <c r="CH46" s="110"/>
       <c r="CI46" s="110" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="CJ46" s="110"/>
       <c r="CK46" s="110"/>
       <c r="CL46" s="110"/>
       <c r="CM46" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CN46" s="110"/>
       <c r="CO46" s="110"/>
       <c r="CP46" s="110"/>
       <c r="CQ46" s="110" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="CR46" s="110"/>
       <c r="CS46" s="110"/>
       <c r="CT46" s="110"/>
       <c r="CU46" s="110" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="CV46" s="110"/>
       <c r="CW46" s="110"/>
       <c r="CX46" s="110"/>
       <c r="CY46" s="110" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="CZ46" s="110"/>
       <c r="DA46" s="110"/>
       <c r="DB46" s="110"/>
       <c r="DC46" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DD46" s="110"/>
       <c r="DE46" s="110"/>
       <c r="DF46" s="110"/>
       <c r="DG46" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DH46" s="110"/>
       <c r="DI46" s="110"/>
       <c r="DJ46" s="110"/>
       <c r="DK46" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DL46" s="110"/>
       <c r="DM46" s="110"/>
       <c r="DN46" s="110"/>
       <c r="DO46" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DP46" s="110"/>
       <c r="DQ46" s="110"/>
       <c r="DR46" s="110"/>
       <c r="DS46" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DT46" s="110"/>
       <c r="DU46" s="110"/>
       <c r="DV46" s="110"/>
       <c r="DW46" s="110" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="DX46" s="110"/>
       <c r="DY46" s="110"/>
       <c r="DZ46" s="110"/>
       <c r="EA46" s="110" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="EB46" s="110"/>
       <c r="EC46" s="110"/>
       <c r="ED46" s="110"/>
       <c r="EE46" s="110" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="EF46" s="110"/>
       <c r="EG46" s="110"/>
       <c r="EH46" s="110"/>
       <c r="EI46" s="110" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="EJ46" s="110"/>
       <c r="EK46" s="110"/>
@@ -19078,13 +19072,13 @@
       <c r="EO46" s="110"/>
       <c r="EP46" s="206"/>
       <c r="EQ46" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="ER46" s="207"/>
       <c r="ES46" s="207"/>
       <c r="ET46" s="207"/>
       <c r="EU46" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EV46" s="110"/>
       <c r="EW46" s="110"/>
@@ -19138,7 +19132,7 @@
     </row>
     <row r="47" spans="1:200" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="62" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B47" s="109"/>
       <c r="C47" s="109"/>
@@ -19177,7 +19171,7 @@
       <c r="AJ47" s="88"/>
       <c r="AK47" s="88"/>
       <c r="AL47" s="164" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AM47" s="161"/>
       <c r="AN47" s="161"/>
@@ -19219,100 +19213,100 @@
       <c r="BX47" s="166"/>
       <c r="BY47" s="229"/>
       <c r="BZ47" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CA47" s="110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="CB47" s="110"/>
       <c r="CC47" s="110"/>
       <c r="CD47" s="110"/>
       <c r="CE47" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CF47" s="110"/>
       <c r="CG47" s="110"/>
       <c r="CH47" s="110"/>
       <c r="CI47" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CJ47" s="110"/>
       <c r="CK47" s="110"/>
       <c r="CL47" s="110"/>
       <c r="CM47" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CN47" s="110"/>
       <c r="CO47" s="110"/>
       <c r="CP47" s="110"/>
       <c r="CQ47" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CR47" s="110"/>
       <c r="CS47" s="110"/>
       <c r="CT47" s="110"/>
       <c r="CU47" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CV47" s="110"/>
       <c r="CW47" s="110"/>
       <c r="CX47" s="110"/>
       <c r="CY47" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CZ47" s="110"/>
       <c r="DA47" s="110"/>
       <c r="DB47" s="110"/>
       <c r="DC47" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DD47" s="110"/>
       <c r="DE47" s="110"/>
       <c r="DF47" s="110"/>
       <c r="DG47" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DH47" s="110"/>
       <c r="DI47" s="110"/>
       <c r="DJ47" s="110"/>
       <c r="DK47" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DL47" s="110"/>
       <c r="DM47" s="110"/>
       <c r="DN47" s="110"/>
       <c r="DO47" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DP47" s="110"/>
       <c r="DQ47" s="110"/>
       <c r="DR47" s="110"/>
       <c r="DS47" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DT47" s="110"/>
       <c r="DU47" s="110"/>
       <c r="DV47" s="110"/>
       <c r="DW47" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DX47" s="110"/>
       <c r="DY47" s="110"/>
       <c r="DZ47" s="110"/>
       <c r="EA47" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EB47" s="110"/>
       <c r="EC47" s="110"/>
       <c r="ED47" s="110"/>
       <c r="EE47" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EF47" s="110"/>
       <c r="EG47" s="110"/>
       <c r="EH47" s="110"/>
       <c r="EI47" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EJ47" s="110"/>
       <c r="EK47" s="110"/>
@@ -19322,13 +19316,13 @@
       <c r="EO47" s="110"/>
       <c r="EP47" s="206"/>
       <c r="EQ47" s="110" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="ER47" s="207"/>
       <c r="ES47" s="207"/>
       <c r="ET47" s="207"/>
       <c r="EU47" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EV47" s="110"/>
       <c r="EW47" s="110"/>
@@ -19421,7 +19415,7 @@
       <c r="AJ48" s="88"/>
       <c r="AK48" s="88"/>
       <c r="AL48" s="164" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AM48" s="161"/>
       <c r="AN48" s="161"/>
@@ -19463,100 +19457,100 @@
       <c r="BX48" s="166"/>
       <c r="BY48" s="229"/>
       <c r="BZ48" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CA48" s="110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="CB48" s="110"/>
       <c r="CC48" s="110"/>
       <c r="CD48" s="110"/>
       <c r="CE48" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CF48" s="110"/>
       <c r="CG48" s="110"/>
       <c r="CH48" s="110"/>
       <c r="CI48" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CJ48" s="110"/>
       <c r="CK48" s="110"/>
       <c r="CL48" s="110"/>
       <c r="CM48" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CN48" s="110"/>
       <c r="CO48" s="110"/>
       <c r="CP48" s="110"/>
       <c r="CQ48" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CR48" s="110"/>
       <c r="CS48" s="110"/>
       <c r="CT48" s="110"/>
       <c r="CU48" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CV48" s="110"/>
       <c r="CW48" s="110"/>
       <c r="CX48" s="110"/>
       <c r="CY48" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CZ48" s="110"/>
       <c r="DA48" s="110"/>
       <c r="DB48" s="110"/>
       <c r="DC48" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DD48" s="110"/>
       <c r="DE48" s="110"/>
       <c r="DF48" s="110"/>
       <c r="DG48" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DH48" s="110"/>
       <c r="DI48" s="110"/>
       <c r="DJ48" s="110"/>
       <c r="DK48" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DL48" s="110"/>
       <c r="DM48" s="110"/>
       <c r="DN48" s="110"/>
       <c r="DO48" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DP48" s="110"/>
       <c r="DQ48" s="110"/>
       <c r="DR48" s="110"/>
       <c r="DS48" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DT48" s="110"/>
       <c r="DU48" s="110"/>
       <c r="DV48" s="110"/>
       <c r="DW48" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DX48" s="110"/>
       <c r="DY48" s="110"/>
       <c r="DZ48" s="110"/>
       <c r="EA48" s="110" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="EB48" s="110"/>
       <c r="EC48" s="110"/>
       <c r="ED48" s="110"/>
       <c r="EE48" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EF48" s="110"/>
       <c r="EG48" s="110"/>
       <c r="EH48" s="110"/>
       <c r="EI48" s="110" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="EJ48" s="110"/>
       <c r="EK48" s="110"/>
@@ -19566,13 +19560,13 @@
       <c r="EO48" s="110"/>
       <c r="EP48" s="206"/>
       <c r="EQ48" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="ER48" s="207"/>
       <c r="ES48" s="207"/>
       <c r="ET48" s="207"/>
       <c r="EU48" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EV48" s="110"/>
       <c r="EW48" s="110"/>
@@ -19626,7 +19620,7 @@
     </row>
     <row r="49" spans="1:200" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="62" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B49" s="109"/>
       <c r="C49" s="109"/>
@@ -19677,7 +19671,7 @@
         <v>260</v>
       </c>
       <c r="AL49" s="164" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="AM49" s="161"/>
       <c r="AN49" s="161"/>
@@ -19767,100 +19761,100 @@
         <v>260</v>
       </c>
       <c r="BZ49" s="110" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="CA49" s="110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="CB49" s="110"/>
       <c r="CC49" s="110"/>
       <c r="CD49" s="110"/>
       <c r="CE49" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CF49" s="110"/>
       <c r="CG49" s="110"/>
       <c r="CH49" s="110"/>
       <c r="CI49" s="110" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="CJ49" s="110"/>
       <c r="CK49" s="110"/>
       <c r="CL49" s="110"/>
       <c r="CM49" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CN49" s="110"/>
       <c r="CO49" s="110"/>
       <c r="CP49" s="110"/>
       <c r="CQ49" s="110" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="CR49" s="110"/>
       <c r="CS49" s="110"/>
       <c r="CT49" s="110"/>
       <c r="CU49" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CV49" s="110"/>
       <c r="CW49" s="110"/>
       <c r="CX49" s="110"/>
       <c r="CY49" s="110" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="CZ49" s="110"/>
       <c r="DA49" s="110"/>
       <c r="DB49" s="110"/>
       <c r="DC49" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DD49" s="110"/>
       <c r="DE49" s="110"/>
       <c r="DF49" s="110"/>
       <c r="DG49" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DH49" s="110"/>
       <c r="DI49" s="110"/>
       <c r="DJ49" s="110"/>
       <c r="DK49" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DL49" s="110"/>
       <c r="DM49" s="110"/>
       <c r="DN49" s="110"/>
       <c r="DO49" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DP49" s="110"/>
       <c r="DQ49" s="110"/>
       <c r="DR49" s="110"/>
       <c r="DS49" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DT49" s="110"/>
       <c r="DU49" s="110"/>
       <c r="DV49" s="110"/>
       <c r="DW49" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DX49" s="110"/>
       <c r="DY49" s="110"/>
       <c r="DZ49" s="110"/>
       <c r="EA49" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EB49" s="110"/>
       <c r="EC49" s="110"/>
       <c r="ED49" s="110"/>
       <c r="EE49" s="110" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="EF49" s="110"/>
       <c r="EG49" s="110"/>
       <c r="EH49" s="110"/>
       <c r="EI49" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EJ49" s="110"/>
       <c r="EK49" s="110"/>
@@ -19870,13 +19864,13 @@
       <c r="EO49" s="110"/>
       <c r="EP49" s="206"/>
       <c r="EQ49" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="ER49" s="207"/>
       <c r="ES49" s="207"/>
       <c r="ET49" s="207"/>
       <c r="EU49" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EV49" s="110"/>
       <c r="EW49" s="110"/>
@@ -19930,7 +19924,7 @@
     </row>
     <row r="50" spans="1:200" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="62" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B50" s="109"/>
       <c r="C50" s="109"/>
@@ -19939,10 +19933,10 @@
       <c r="F50" s="109"/>
       <c r="G50" s="109"/>
       <c r="H50" s="109" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="I50" s="109" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J50" s="109"/>
       <c r="K50" s="109"/>
@@ -19973,7 +19967,7 @@
       <c r="AJ50" s="88"/>
       <c r="AK50" s="88"/>
       <c r="AL50" s="164" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="AM50" s="161"/>
       <c r="AN50" s="161"/>
@@ -20015,126 +20009,126 @@
       <c r="BX50" s="166"/>
       <c r="BY50" s="229"/>
       <c r="BZ50" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CA50" s="207" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="CB50" s="110"/>
       <c r="CC50" s="110" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="CD50" s="110" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="CE50" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CF50" s="110"/>
       <c r="CG50" s="110"/>
       <c r="CH50" s="110"/>
       <c r="CI50" s="110" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="CJ50" s="110"/>
       <c r="CK50" s="110" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="CL50" s="110"/>
       <c r="CM50" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CN50" s="110"/>
       <c r="CO50" s="110"/>
       <c r="CP50" s="110"/>
       <c r="CQ50" s="110" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="CR50" s="110"/>
       <c r="CS50" s="110" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CT50" s="110"/>
       <c r="CU50" s="110" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="CV50" s="110" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="CW50" s="110" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="CX50" s="110"/>
       <c r="CY50" s="110" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="CZ50" s="110" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="DA50" s="110"/>
       <c r="DB50" s="110"/>
       <c r="DC50" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DD50" s="110"/>
       <c r="DE50" s="110" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="DF50" s="110" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="DG50" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DH50" s="110"/>
       <c r="DI50" s="110"/>
       <c r="DJ50" s="110"/>
       <c r="DK50" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DL50" s="110"/>
       <c r="DM50" s="110"/>
       <c r="DN50" s="110"/>
       <c r="DO50" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DP50" s="110"/>
       <c r="DQ50" s="110"/>
       <c r="DR50" s="110"/>
       <c r="DS50" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DT50" s="110"/>
       <c r="DU50" s="110"/>
       <c r="DV50" s="110"/>
       <c r="DW50" s="110" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="DX50" s="110"/>
       <c r="DY50" s="110" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="DZ50" s="110"/>
       <c r="EA50" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EB50" s="110"/>
       <c r="EC50" s="110" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="ED50" s="110"/>
       <c r="EE50" s="110" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="EF50" s="110"/>
       <c r="EG50" s="110"/>
       <c r="EH50" s="110"/>
       <c r="EI50" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EJ50" s="110"/>
       <c r="EK50" s="110" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="EL50" s="110"/>
       <c r="EM50" s="110"/>
@@ -20142,13 +20136,13 @@
       <c r="EO50" s="110"/>
       <c r="EP50" s="206"/>
       <c r="EQ50" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="ER50" s="207"/>
       <c r="ES50" s="207"/>
       <c r="ET50" s="207"/>
       <c r="EU50" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EV50" s="110"/>
       <c r="EW50" s="110"/>
@@ -20202,7 +20196,7 @@
     </row>
     <row r="51" spans="1:200" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="62" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B51" s="109"/>
       <c r="C51" s="109"/>
@@ -20211,10 +20205,10 @@
       <c r="F51" s="109"/>
       <c r="G51" s="109"/>
       <c r="H51" s="109" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="I51" s="109" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J51" s="109"/>
       <c r="K51" s="109"/>
@@ -20245,11 +20239,11 @@
       <c r="AJ51" s="88"/>
       <c r="AK51" s="88"/>
       <c r="AL51" s="164" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AM51" s="161"/>
       <c r="AN51" s="161" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AO51" s="161"/>
       <c r="AP51" s="161"/>
@@ -20289,114 +20283,114 @@
       <c r="BX51" s="166"/>
       <c r="BY51" s="229"/>
       <c r="BZ51" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CA51" s="207" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="CB51" s="110"/>
       <c r="CC51" s="110" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="CD51" s="110" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="CE51" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CF51" s="110"/>
       <c r="CG51" s="110"/>
       <c r="CH51" s="110"/>
       <c r="CI51" s="110" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="CJ51" s="110"/>
       <c r="CK51" s="110" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="CL51" s="110"/>
       <c r="CM51" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CN51" s="110"/>
       <c r="CO51" s="110"/>
       <c r="CP51" s="110"/>
       <c r="CQ51" s="110" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="CR51" s="110"/>
       <c r="CS51" s="110" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CT51" s="110"/>
       <c r="CU51" s="110" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="CV51" s="110"/>
       <c r="CW51" s="110"/>
       <c r="CX51" s="110"/>
       <c r="CY51" s="110" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="CZ51" s="110" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="DA51" s="110"/>
       <c r="DB51" s="110"/>
       <c r="DC51" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DD51" s="110"/>
       <c r="DE51" s="110" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="DF51" s="110" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="DG51" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DH51" s="110"/>
       <c r="DI51" s="110"/>
       <c r="DJ51" s="110"/>
       <c r="DK51" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DL51" s="110"/>
       <c r="DM51" s="110"/>
       <c r="DN51" s="110"/>
       <c r="DO51" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DP51" s="110"/>
       <c r="DQ51" s="110"/>
       <c r="DR51" s="110"/>
       <c r="DS51" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DT51" s="110"/>
       <c r="DU51" s="110"/>
       <c r="DV51" s="110"/>
       <c r="DW51" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DX51" s="110"/>
       <c r="DY51" s="110"/>
       <c r="DZ51" s="110"/>
       <c r="EA51" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EB51" s="110"/>
       <c r="EC51" s="110"/>
       <c r="ED51" s="110"/>
       <c r="EE51" s="110" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="EF51" s="110"/>
       <c r="EG51" s="110"/>
       <c r="EH51" s="110"/>
       <c r="EI51" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EJ51" s="110"/>
       <c r="EK51" s="110"/>
@@ -20406,13 +20400,13 @@
       <c r="EO51" s="110"/>
       <c r="EP51" s="206"/>
       <c r="EQ51" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="ER51" s="207"/>
       <c r="ES51" s="207"/>
       <c r="ET51" s="207"/>
       <c r="EU51" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EV51" s="110"/>
       <c r="EW51" s="110"/>
@@ -20505,7 +20499,7 @@
       <c r="AJ52" s="88"/>
       <c r="AK52" s="88"/>
       <c r="AL52" s="164" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AM52" s="161"/>
       <c r="AN52" s="161"/>
@@ -20547,100 +20541,100 @@
       <c r="BX52" s="166"/>
       <c r="BY52" s="229"/>
       <c r="BZ52" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CA52" s="207" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="CB52" s="110"/>
       <c r="CC52" s="110"/>
       <c r="CD52" s="110"/>
       <c r="CE52" s="110" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CF52" s="110"/>
       <c r="CG52" s="110"/>
       <c r="CH52" s="110"/>
       <c r="CI52" s="110" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="CJ52" s="110"/>
       <c r="CK52" s="110"/>
       <c r="CL52" s="110"/>
       <c r="CM52" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CN52" s="110"/>
       <c r="CO52" s="110"/>
       <c r="CP52" s="110"/>
       <c r="CQ52" s="110" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="CR52" s="110"/>
       <c r="CS52" s="110"/>
       <c r="CT52" s="110"/>
       <c r="CU52" s="110" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="CV52" s="110"/>
       <c r="CW52" s="110"/>
       <c r="CX52" s="110"/>
       <c r="CY52" s="110" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="CZ52" s="110"/>
       <c r="DA52" s="110"/>
       <c r="DB52" s="110"/>
       <c r="DC52" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DD52" s="110"/>
       <c r="DE52" s="110"/>
       <c r="DF52" s="110"/>
       <c r="DG52" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DH52" s="110"/>
       <c r="DI52" s="110"/>
       <c r="DJ52" s="110"/>
       <c r="DK52" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DL52" s="110"/>
       <c r="DM52" s="110"/>
       <c r="DN52" s="110"/>
       <c r="DO52" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DP52" s="110"/>
       <c r="DQ52" s="110"/>
       <c r="DR52" s="110"/>
       <c r="DS52" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DT52" s="110"/>
       <c r="DU52" s="110"/>
       <c r="DV52" s="110"/>
       <c r="DW52" s="110" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="DX52" s="110"/>
       <c r="DY52" s="110"/>
       <c r="DZ52" s="110"/>
       <c r="EA52" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EB52" s="110"/>
       <c r="EC52" s="110"/>
       <c r="ED52" s="110"/>
       <c r="EE52" s="110" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="EF52" s="110"/>
       <c r="EG52" s="110"/>
       <c r="EH52" s="110"/>
       <c r="EI52" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EJ52" s="110"/>
       <c r="EK52" s="110"/>
@@ -20650,13 +20644,13 @@
       <c r="EO52" s="110"/>
       <c r="EP52" s="206"/>
       <c r="EQ52" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="ER52" s="207"/>
       <c r="ES52" s="207"/>
       <c r="ET52" s="207"/>
       <c r="EU52" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EV52" s="110"/>
       <c r="EW52" s="110"/>
@@ -20749,7 +20743,7 @@
       <c r="AJ53" s="88"/>
       <c r="AK53" s="88"/>
       <c r="AL53" s="164" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AM53" s="161"/>
       <c r="AN53" s="161"/>
@@ -20791,100 +20785,100 @@
       <c r="BX53" s="166"/>
       <c r="BY53" s="229"/>
       <c r="BZ53" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CA53" s="110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="CB53" s="110"/>
       <c r="CC53" s="110"/>
       <c r="CD53" s="110"/>
       <c r="CE53" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CF53" s="110"/>
       <c r="CG53" s="110"/>
       <c r="CH53" s="110"/>
       <c r="CI53" s="110" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="CJ53" s="110"/>
       <c r="CK53" s="110"/>
       <c r="CL53" s="110"/>
       <c r="CM53" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CN53" s="110"/>
       <c r="CO53" s="110"/>
       <c r="CP53" s="110"/>
       <c r="CQ53" s="110" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="CR53" s="110"/>
       <c r="CS53" s="110"/>
       <c r="CT53" s="110"/>
       <c r="CU53" s="110" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="CV53" s="110"/>
       <c r="CW53" s="110"/>
       <c r="CX53" s="110"/>
       <c r="CY53" s="110" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="CZ53" s="110"/>
       <c r="DA53" s="110"/>
       <c r="DB53" s="110"/>
       <c r="DC53" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DD53" s="110"/>
       <c r="DE53" s="110"/>
       <c r="DF53" s="110"/>
       <c r="DG53" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DH53" s="110"/>
       <c r="DI53" s="110"/>
       <c r="DJ53" s="110"/>
       <c r="DK53" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DL53" s="110"/>
       <c r="DM53" s="110"/>
       <c r="DN53" s="110"/>
       <c r="DO53" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DP53" s="110"/>
       <c r="DQ53" s="110"/>
       <c r="DR53" s="110"/>
       <c r="DS53" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DT53" s="110"/>
       <c r="DU53" s="110"/>
       <c r="DV53" s="110"/>
       <c r="DW53" s="110" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="DX53" s="110"/>
       <c r="DY53" s="110"/>
       <c r="DZ53" s="110"/>
       <c r="EA53" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EB53" s="110"/>
       <c r="EC53" s="110"/>
       <c r="ED53" s="110"/>
       <c r="EE53" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EF53" s="110"/>
       <c r="EG53" s="110"/>
       <c r="EH53" s="110"/>
       <c r="EI53" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EJ53" s="110"/>
       <c r="EK53" s="110"/>
@@ -20894,13 +20888,13 @@
       <c r="EO53" s="110"/>
       <c r="EP53" s="206"/>
       <c r="EQ53" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="ER53" s="207"/>
       <c r="ES53" s="207"/>
       <c r="ET53" s="207"/>
       <c r="EU53" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EV53" s="110"/>
       <c r="EW53" s="110"/>
@@ -20993,7 +20987,7 @@
       <c r="AJ54" s="89"/>
       <c r="AK54" s="87"/>
       <c r="AL54" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AM54" s="161"/>
       <c r="AN54" s="161"/>
@@ -21035,100 +21029,100 @@
       <c r="BX54" s="166"/>
       <c r="BY54" s="229"/>
       <c r="BZ54" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CA54" s="110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="CB54" s="110"/>
       <c r="CC54" s="110"/>
       <c r="CD54" s="110"/>
       <c r="CE54" s="110" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="CF54" s="110"/>
       <c r="CG54" s="110"/>
       <c r="CH54" s="110"/>
       <c r="CI54" s="110" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="CJ54" s="110"/>
       <c r="CK54" s="110"/>
       <c r="CL54" s="110"/>
       <c r="CM54" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CN54" s="110"/>
       <c r="CO54" s="110"/>
       <c r="CP54" s="110"/>
       <c r="CQ54" s="110" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="CR54" s="110"/>
       <c r="CS54" s="110"/>
       <c r="CT54" s="110"/>
       <c r="CU54" s="110" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="CV54" s="110"/>
       <c r="CW54" s="110"/>
       <c r="CX54" s="110"/>
       <c r="CY54" s="110" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="CZ54" s="110"/>
       <c r="DA54" s="110"/>
       <c r="DB54" s="110"/>
       <c r="DC54" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DD54" s="110"/>
       <c r="DE54" s="110"/>
       <c r="DF54" s="110"/>
       <c r="DG54" s="110" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="DH54" s="110"/>
       <c r="DI54" s="110"/>
       <c r="DJ54" s="110"/>
       <c r="DK54" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DL54" s="110"/>
       <c r="DM54" s="110"/>
       <c r="DN54" s="110"/>
       <c r="DO54" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DP54" s="110"/>
       <c r="DQ54" s="110"/>
       <c r="DR54" s="110"/>
       <c r="DS54" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DT54" s="110"/>
       <c r="DU54" s="110"/>
       <c r="DV54" s="110"/>
       <c r="DW54" s="110" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="DX54" s="110"/>
       <c r="DY54" s="110"/>
       <c r="DZ54" s="110"/>
       <c r="EA54" s="110" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="EB54" s="110"/>
       <c r="EC54" s="110"/>
       <c r="ED54" s="110"/>
       <c r="EE54" s="110" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="EF54" s="110"/>
       <c r="EG54" s="110"/>
       <c r="EH54" s="110"/>
       <c r="EI54" s="110" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="EJ54" s="110"/>
       <c r="EK54" s="110"/>
@@ -21138,13 +21132,13 @@
       <c r="EO54" s="110"/>
       <c r="EP54" s="206"/>
       <c r="EQ54" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="ER54" s="207"/>
       <c r="ES54" s="207"/>
       <c r="ET54" s="207"/>
       <c r="EU54" s="207" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="EV54" s="110"/>
       <c r="EW54" s="110"/>
@@ -21237,7 +21231,7 @@
       <c r="AJ55" s="89"/>
       <c r="AK55" s="89"/>
       <c r="AL55" s="164" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AM55" s="161"/>
       <c r="AN55" s="161"/>
@@ -21279,100 +21273,100 @@
       <c r="BX55" s="166"/>
       <c r="BY55" s="229"/>
       <c r="BZ55" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CA55" s="110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="CB55" s="110"/>
       <c r="CC55" s="110"/>
       <c r="CD55" s="110"/>
       <c r="CE55" s="110" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="CF55" s="110"/>
       <c r="CG55" s="110"/>
       <c r="CH55" s="110"/>
       <c r="CI55" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CJ55" s="110"/>
       <c r="CK55" s="110"/>
       <c r="CL55" s="110"/>
       <c r="CM55" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CN55" s="110"/>
       <c r="CO55" s="110"/>
       <c r="CP55" s="110"/>
       <c r="CQ55" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CR55" s="110"/>
       <c r="CS55" s="110"/>
       <c r="CT55" s="110"/>
       <c r="CU55" s="110" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="CV55" s="110"/>
       <c r="CW55" s="110"/>
       <c r="CX55" s="110"/>
       <c r="CY55" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CZ55" s="110"/>
       <c r="DA55" s="110"/>
       <c r="DB55" s="110"/>
       <c r="DC55" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DD55" s="110"/>
       <c r="DE55" s="110"/>
       <c r="DF55" s="110"/>
       <c r="DG55" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DH55" s="110"/>
       <c r="DI55" s="110"/>
       <c r="DJ55" s="110"/>
       <c r="DK55" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DL55" s="110"/>
       <c r="DM55" s="110"/>
       <c r="DN55" s="110"/>
       <c r="DO55" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DP55" s="110"/>
       <c r="DQ55" s="110"/>
       <c r="DR55" s="110"/>
       <c r="DS55" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DT55" s="110"/>
       <c r="DU55" s="110"/>
       <c r="DV55" s="110"/>
       <c r="DW55" s="110" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="DX55" s="110"/>
       <c r="DY55" s="110"/>
       <c r="DZ55" s="110"/>
       <c r="EA55" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EB55" s="110"/>
       <c r="EC55" s="110"/>
       <c r="ED55" s="110"/>
       <c r="EE55" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EF55" s="110"/>
       <c r="EG55" s="110"/>
       <c r="EH55" s="110"/>
       <c r="EI55" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EJ55" s="110"/>
       <c r="EK55" s="110"/>
@@ -21382,13 +21376,13 @@
       <c r="EO55" s="110"/>
       <c r="EP55" s="206"/>
       <c r="EQ55" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="ER55" s="207"/>
       <c r="ES55" s="207"/>
       <c r="ET55" s="207"/>
       <c r="EU55" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EV55" s="110"/>
       <c r="EW55" s="110"/>
@@ -21442,7 +21436,7 @@
     </row>
     <row r="56" spans="1:200" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="62" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B56" s="109"/>
       <c r="C56" s="109"/>
@@ -21481,7 +21475,7 @@
       <c r="AJ56" s="89"/>
       <c r="AK56" s="89"/>
       <c r="AL56" s="164" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AM56" s="161"/>
       <c r="AN56" s="161"/>
@@ -21523,100 +21517,100 @@
       <c r="BX56" s="166"/>
       <c r="BY56" s="229"/>
       <c r="BZ56" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CA56" s="110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="CB56" s="110"/>
       <c r="CC56" s="110"/>
       <c r="CD56" s="110"/>
       <c r="CE56" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CF56" s="110"/>
       <c r="CG56" s="110"/>
       <c r="CH56" s="110"/>
       <c r="CI56" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CJ56" s="110"/>
       <c r="CK56" s="110"/>
       <c r="CL56" s="110"/>
       <c r="CM56" s="110" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="CN56" s="110"/>
       <c r="CO56" s="110"/>
       <c r="CP56" s="110"/>
       <c r="CQ56" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CR56" s="110"/>
       <c r="CS56" s="110"/>
       <c r="CT56" s="110"/>
       <c r="CU56" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CV56" s="110"/>
       <c r="CW56" s="110"/>
       <c r="CX56" s="110"/>
       <c r="CY56" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="CZ56" s="110"/>
       <c r="DA56" s="110"/>
       <c r="DB56" s="110"/>
       <c r="DC56" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DD56" s="110"/>
       <c r="DE56" s="110"/>
       <c r="DF56" s="110"/>
       <c r="DG56" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DH56" s="110"/>
       <c r="DI56" s="110"/>
       <c r="DJ56" s="110"/>
       <c r="DK56" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DL56" s="110"/>
       <c r="DM56" s="110"/>
       <c r="DN56" s="110"/>
       <c r="DO56" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DP56" s="110"/>
       <c r="DQ56" s="110"/>
       <c r="DR56" s="110"/>
       <c r="DS56" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DT56" s="110"/>
       <c r="DU56" s="110"/>
       <c r="DV56" s="110"/>
       <c r="DW56" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DX56" s="110"/>
       <c r="DY56" s="110"/>
       <c r="DZ56" s="110"/>
       <c r="EA56" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EB56" s="110"/>
       <c r="EC56" s="110"/>
       <c r="ED56" s="110"/>
       <c r="EE56" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EF56" s="110"/>
       <c r="EG56" s="110"/>
       <c r="EH56" s="110"/>
       <c r="EI56" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="EJ56" s="110"/>
       <c r="EK56" s="110"/>
@@ -21626,13 +21620,13 @@
       <c r="EO56" s="110"/>
       <c r="EP56" s="206"/>
       <c r="EQ56" s="110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="ER56" s="207"/>
       <c r="ES56" s="207"/>
       <c r="ET56" s="207"/>
       <c r="EU56" s="207" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="EV56" s="110"/>
       <c r="EW56" s="110"/>
@@ -21686,7 +21680,7 @@
     </row>
     <row r="57" spans="1:200" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="155" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B57" s="198"/>
       <c r="C57" s="199" t="s">
@@ -22282,7 +22276,7 @@
       <c r="DK58" s="108"/>
       <c r="DL58" s="108"/>
       <c r="DM58" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="DN58" s="108"/>
       <c r="DO58" s="69"/>
@@ -22314,7 +22308,7 @@
       <c r="EM58" s="108"/>
       <c r="EN58" s="108"/>
       <c r="EO58" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="EP58" s="108"/>
       <c r="EQ58" s="108"/>
@@ -22374,7 +22368,7 @@
     </row>
     <row r="59" spans="1:200" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="61" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B59" s="56"/>
       <c r="C59" s="102" t="s">
@@ -22970,10 +22964,10 @@
       <c r="DK60" s="108"/>
       <c r="DL60" s="108"/>
       <c r="DM60" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="DN60" s="108" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="DO60" s="69"/>
       <c r="DP60" s="108"/>
@@ -23004,10 +22998,10 @@
       <c r="EM60" s="108"/>
       <c r="EN60" s="108"/>
       <c r="EO60" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="EP60" s="108" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="EQ60" s="108"/>
       <c r="ER60" s="108"/>
@@ -23066,7 +23060,7 @@
     </row>
     <row r="61" spans="1:200" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="61" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B61" s="56"/>
       <c r="C61" s="102" t="s">
@@ -23662,7 +23656,7 @@
       <c r="DK62" s="108"/>
       <c r="DL62" s="108"/>
       <c r="DM62" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="DN62" s="108"/>
       <c r="DO62" s="69"/>
@@ -23694,7 +23688,7 @@
       <c r="EM62" s="108"/>
       <c r="EN62" s="108"/>
       <c r="EO62" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="EP62" s="108"/>
       <c r="EQ62" s="108"/>
@@ -23754,7 +23748,7 @@
     </row>
     <row r="63" spans="1:200" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="61" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B63" s="56"/>
       <c r="C63" s="102" t="s">
@@ -24350,10 +24344,10 @@
       <c r="DK64" s="108"/>
       <c r="DL64" s="108"/>
       <c r="DM64" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="DN64" s="108" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="DO64" s="69"/>
       <c r="DP64" s="108"/>
@@ -24384,10 +24378,10 @@
       <c r="EM64" s="108"/>
       <c r="EN64" s="108"/>
       <c r="EO64" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="EP64" s="108" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="EQ64" s="108"/>
       <c r="ER64" s="108"/>
@@ -24446,7 +24440,7 @@
     </row>
     <row r="65" spans="1:200" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="61" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B65" s="56"/>
       <c r="C65" s="102" t="s">
@@ -25042,10 +25036,10 @@
       <c r="DK66" s="108"/>
       <c r="DL66" s="108"/>
       <c r="DM66" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="DN66" s="108" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="DO66" s="69"/>
       <c r="DP66" s="108"/>
@@ -25076,10 +25070,10 @@
       <c r="EM66" s="108"/>
       <c r="EN66" s="108"/>
       <c r="EO66" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="EP66" s="108" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="EQ66" s="108"/>
       <c r="ER66" s="108"/>
@@ -25138,7 +25132,7 @@
     </row>
     <row r="67" spans="1:200" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="61" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B67" s="56"/>
       <c r="C67" s="102" t="s">
@@ -25734,7 +25728,7 @@
       <c r="DK68" s="108"/>
       <c r="DL68" s="108"/>
       <c r="DM68" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="DN68" s="108"/>
       <c r="DO68" s="69"/>
@@ -25766,10 +25760,10 @@
       <c r="EM68" s="108"/>
       <c r="EN68" s="108"/>
       <c r="EO68" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="EP68" s="108" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="EQ68" s="108"/>
       <c r="ER68" s="108"/>
@@ -25828,7 +25822,7 @@
     </row>
     <row r="69" spans="1:200" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="61" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B69" s="56"/>
       <c r="C69" s="102" t="s">
@@ -26424,10 +26418,10 @@
       <c r="DK70" s="108"/>
       <c r="DL70" s="108"/>
       <c r="DM70" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="DN70" s="108" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="DO70" s="69"/>
       <c r="DP70" s="108"/>
@@ -26458,10 +26452,10 @@
       <c r="EM70" s="108"/>
       <c r="EN70" s="108"/>
       <c r="EO70" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="EP70" s="108" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="EQ70" s="108"/>
       <c r="ER70" s="108"/>
@@ -26520,7 +26514,7 @@
     </row>
     <row r="71" spans="1:200" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="61" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B71" s="56"/>
       <c r="C71" s="102" t="s">
@@ -27116,7 +27110,7 @@
       <c r="DK72" s="108"/>
       <c r="DL72" s="108"/>
       <c r="DM72" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="DN72" s="108"/>
       <c r="DO72" s="69"/>
@@ -27148,7 +27142,7 @@
       <c r="EM72" s="108"/>
       <c r="EN72" s="108"/>
       <c r="EO72" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="EP72" s="108"/>
       <c r="EQ72" s="108"/>
@@ -27208,7 +27202,7 @@
     </row>
     <row r="73" spans="1:200" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="61" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B73" s="56"/>
       <c r="C73" s="102" t="s">
@@ -27804,10 +27798,10 @@
       <c r="DK74" s="108"/>
       <c r="DL74" s="108"/>
       <c r="DM74" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="DN74" s="108" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="DO74" s="69"/>
       <c r="DP74" s="108"/>
@@ -27838,10 +27832,10 @@
       <c r="EM74" s="108"/>
       <c r="EN74" s="108"/>
       <c r="EO74" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="EP74" s="108" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="EQ74" s="108"/>
       <c r="ER74" s="108"/>
@@ -27900,7 +27894,7 @@
     </row>
     <row r="75" spans="1:200" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="61" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B75" s="56"/>
       <c r="C75" s="102" t="s">
@@ -28496,10 +28490,10 @@
       <c r="DK76" s="108"/>
       <c r="DL76" s="108"/>
       <c r="DM76" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="DN76" s="108" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="DO76" s="69"/>
       <c r="DP76" s="108"/>
@@ -28530,10 +28524,10 @@
       <c r="EM76" s="108"/>
       <c r="EN76" s="108"/>
       <c r="EO76" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="EP76" s="108" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="EQ76" s="108"/>
       <c r="ER76" s="108"/>
@@ -28592,7 +28586,7 @@
     </row>
     <row r="77" spans="1:200" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="61" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B77" s="56"/>
       <c r="C77" s="102" t="s">
@@ -29188,7 +29182,7 @@
       <c r="DK78" s="108"/>
       <c r="DL78" s="108"/>
       <c r="DM78" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="DN78" s="108"/>
       <c r="DO78" s="69"/>
@@ -29220,10 +29214,10 @@
       <c r="EM78" s="108"/>
       <c r="EN78" s="108"/>
       <c r="EO78" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="EP78" s="108" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="EQ78" s="108"/>
       <c r="ER78" s="108"/>
@@ -29282,7 +29276,7 @@
     </row>
     <row r="79" spans="1:200" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="61" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B79" s="56"/>
       <c r="C79" s="102" t="s">
@@ -29878,7 +29872,7 @@
       <c r="DK80" s="108"/>
       <c r="DL80" s="108"/>
       <c r="DM80" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="DN80" s="108"/>
       <c r="DO80" s="69"/>
@@ -29910,7 +29904,7 @@
       <c r="EM80" s="108"/>
       <c r="EN80" s="108"/>
       <c r="EO80" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="EP80" s="108"/>
       <c r="EQ80" s="108"/>
@@ -29970,7 +29964,7 @@
     </row>
     <row r="81" spans="1:200" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="61" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B81" s="56"/>
       <c r="C81" s="102" t="s">
@@ -30566,7 +30560,7 @@
       <c r="DK82" s="108"/>
       <c r="DL82" s="108"/>
       <c r="DM82" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="DN82" s="108"/>
       <c r="DO82" s="69"/>
@@ -30598,10 +30592,10 @@
       <c r="EM82" s="108"/>
       <c r="EN82" s="108"/>
       <c r="EO82" s="106" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="EP82" s="108" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="EQ82" s="108"/>
       <c r="ER82" s="108"/>
@@ -30714,18 +30708,18 @@
         <v>55</v>
       </c>
       <c r="C3" s="213" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D3" s="188" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E3" s="213" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="214" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B4" s="215"/>
       <c r="C4" s="215"/>
@@ -30734,7 +30728,7 @@
     </row>
     <row r="5" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="214" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B5" s="215"/>
       <c r="C5" s="215"/>
@@ -30768,7 +30762,7 @@
         <v>125</v>
       </c>
       <c r="E7" s="72" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -30776,16 +30770,16 @@
         <v>53</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E8" s="72" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -30815,7 +30809,7 @@
         <v>431</v>
       </c>
       <c r="E10" s="72" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -30823,16 +30817,16 @@
         <v>53</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E11" s="72" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -30870,16 +30864,16 @@
         <v>53</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E14" s="72" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -30915,13 +30909,13 @@
         <v>53</v>
       </c>
       <c r="B17" s="72" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C17" s="72" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E17" s="72"/>
     </row>
@@ -30958,7 +30952,7 @@
       <c r="B20" s="72"/>
       <c r="C20" s="72"/>
       <c r="D20" s="72" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E20" s="72"/>
     </row>
@@ -30995,7 +30989,7 @@
       <c r="B23" s="72"/>
       <c r="C23" s="72"/>
       <c r="D23" s="72" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E23" s="72"/>
     </row>
@@ -31032,7 +31026,7 @@
       <c r="B26" s="72"/>
       <c r="C26" s="72"/>
       <c r="D26" s="72" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E26" s="72"/>
     </row>
@@ -31487,10 +31481,10 @@
         <v>237</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -31651,7 +31645,7 @@
         <v>175</v>
       </c>
       <c r="M7" s="70" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="N7" s="70" t="s">
         <v>175</v>
@@ -31827,7 +31821,7 @@
         <v>175</v>
       </c>
       <c r="M11" s="70" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="N11" s="70" t="s">
         <v>175</v>
@@ -31915,7 +31909,7 @@
         <v>175</v>
       </c>
       <c r="M13" s="70" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="N13" s="70" t="s">
         <v>175</v>
@@ -31923,46 +31917,46 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -32055,46 +32049,46 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -32187,46 +32181,46 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -32319,46 +32313,46 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -32377,10 +32371,10 @@
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
       <c r="M24" s="25" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="N24" s="25" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -32407,46 +32401,46 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -32465,7 +32459,7 @@
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
       <c r="M27" s="25" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="N27" s="25"/>
     </row>
@@ -32485,7 +32479,7 @@
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
       <c r="M28" s="25" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="N28" s="25"/>
     </row>
@@ -32532,7 +32526,7 @@
         <v>99</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -32553,10 +32547,10 @@
         <v>196</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -32570,10 +32564,10 @@
         <v>195</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -32587,10 +32581,10 @@
         <v>197</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -32604,7 +32598,7 @@
         <v>199</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E7" s="70" t="s">
         <v>290</v>
@@ -32621,7 +32615,7 @@
         <v>198</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E8" s="70" t="s">
         <v>291</v>
@@ -32651,10 +32645,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F222"/>
+  <dimension ref="A1:F196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A192" activeCellId="1" sqref="A191:XFD191 A192:XFD192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32843,7 +32837,7 @@
         <v>150</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
@@ -32988,7 +32982,7 @@
         <v>0.25</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>469</v>
+        <v>188</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23" s="47"/>
@@ -33002,121 +32996,121 @@
         <v>0.25</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>470</v>
+        <v>189</v>
       </c>
       <c r="D24" s="46"/>
       <c r="E24" s="47"/>
       <c r="F24" s="47"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="B25" s="49">
+      <c r="B30" s="49">
         <v>0.25</v>
       </c>
-      <c r="C25" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+      <c r="C30" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="49">
+      <c r="B31" s="49">
         <v>0.25</v>
       </c>
-      <c r="C26" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>2</v>
-      </c>
+      <c r="C31" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="46"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="46" t="s">
         <v>136</v>
       </c>
       <c r="B32" s="49">
         <v>0.25</v>
       </c>
-      <c r="C32" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
+      <c r="C32" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="46"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
@@ -33126,7 +33120,7 @@
         <v>0.25</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D33" s="46"/>
       <c r="E33" s="47"/>
@@ -33140,7 +33134,7 @@
         <v>0.25</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D34" s="46"/>
       <c r="E34" s="47"/>
@@ -33154,7 +33148,7 @@
         <v>0.25</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D35" s="46"/>
       <c r="E35" s="47"/>
@@ -33168,7 +33162,7 @@
         <v>0.25</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D36" s="46"/>
       <c r="E36" s="47"/>
@@ -33182,7 +33176,7 @@
         <v>0.25</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="D37" s="46"/>
       <c r="E37" s="47"/>
@@ -33196,149 +33190,149 @@
         <v>0.25</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="D38" s="46"/>
       <c r="E38" s="47"/>
       <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="B39" s="49">
+      <c r="B44" s="49">
         <v>0.25</v>
       </c>
-      <c r="C39" s="46" t="s">
-        <v>469</v>
-      </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
+      <c r="C44" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="44"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="49">
+      <c r="B45" s="49">
         <v>0.25</v>
       </c>
-      <c r="C40" s="46" t="s">
-        <v>470</v>
-      </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
+      <c r="C45" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="46"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="49">
+      <c r="B46" s="49">
         <v>0.25</v>
       </c>
-      <c r="C41" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" s="46"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
+      <c r="C46" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="46"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="B42" s="49">
+      <c r="B47" s="49">
         <v>0.25</v>
       </c>
-      <c r="C42" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="D42" s="46"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B45" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B47" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" s="35" t="s">
-        <v>2</v>
-      </c>
+      <c r="C47" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="46"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="44" t="s">
+      <c r="A48" s="46" t="s">
         <v>136</v>
       </c>
       <c r="B48" s="49">
         <v>0.25</v>
       </c>
-      <c r="C48" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" s="44"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
+      <c r="C48" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="46"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="46" t="s">
@@ -33348,7 +33342,7 @@
         <v>0.25</v>
       </c>
       <c r="C49" s="46" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D49" s="46"/>
       <c r="E49" s="47"/>
@@ -33362,7 +33356,7 @@
         <v>0.25</v>
       </c>
       <c r="C50" s="46" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D50" s="46"/>
       <c r="E50" s="47"/>
@@ -33376,7 +33370,7 @@
         <v>0.25</v>
       </c>
       <c r="C51" s="46" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="D51" s="46"/>
       <c r="E51" s="47"/>
@@ -33390,177 +33384,177 @@
         <v>0.25</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="D52" s="46"/>
       <c r="E52" s="47"/>
       <c r="F52" s="47"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B53" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C53" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" s="46"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
+      <c r="A53" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B54" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C54" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="D54" s="46"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B55" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C55" s="46" t="s">
+      <c r="A54" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="D55" s="46"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B56" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C56" s="46" t="s">
-        <v>470</v>
-      </c>
-      <c r="D56" s="46"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B57" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C57" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="D57" s="46"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="34" t="s">
+        <v>493</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57" s="35" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="44" t="s">
         <v>136</v>
       </c>
       <c r="B58" s="49">
         <v>0.25</v>
       </c>
-      <c r="C58" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="D58" s="46"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
+      <c r="C58" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="44"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B59" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
+      <c r="A59" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C59" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="46"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B61" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="B62" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="34" t="s">
-        <v>495</v>
-      </c>
-      <c r="B63" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D63" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="E63" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="F63" s="35" t="s">
-        <v>2</v>
-      </c>
+      <c r="A60" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C60" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="46"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C61" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" s="46"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C62" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="46"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C63" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" s="46"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="44" t="s">
+      <c r="A64" s="46" t="s">
         <v>136</v>
       </c>
       <c r="B64" s="49">
         <v>0.25</v>
       </c>
-      <c r="C64" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="D64" s="44"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
+      <c r="C64" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" s="46"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="46" t="s">
@@ -33570,7 +33564,7 @@
         <v>0.25</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="D65" s="46"/>
       <c r="E65" s="47"/>
@@ -33584,331 +33578,329 @@
         <v>0.25</v>
       </c>
       <c r="C66" s="46" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D66" s="46"/>
       <c r="E66" s="47"/>
       <c r="F66" s="47"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B67" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C67" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D67" s="46"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
+      <c r="A67" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B68" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C68" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D68" s="46"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C69" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="D69" s="46"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B70" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C70" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="D70" s="46"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B71" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C71" s="46" t="s">
+      <c r="A68" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="D71" s="46"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B71" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E71" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" s="40" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="46" t="s">
+      <c r="A72" s="44" t="s">
         <v>136</v>
       </c>
       <c r="B72" s="49">
         <v>0.25</v>
       </c>
-      <c r="C72" s="46" t="s">
-        <v>470</v>
-      </c>
-      <c r="D72" s="46"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="47"/>
+      <c r="C72" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D72" s="44"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="45"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="46" t="s">
+      <c r="A73" s="44" t="s">
         <v>136</v>
       </c>
       <c r="B73" s="49">
         <v>0.25</v>
       </c>
       <c r="C73" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="D73" s="46"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="47"/>
+        <v>142</v>
+      </c>
+      <c r="D73" s="44"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="46" t="s">
+      <c r="A74" s="44" t="s">
         <v>136</v>
       </c>
       <c r="B74" s="49">
         <v>0.25</v>
       </c>
       <c r="C74" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="D74" s="46"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="47"/>
+        <v>143</v>
+      </c>
+      <c r="D74" s="44"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
+      <c r="A75" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C75" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D75" s="46"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="B76" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B77" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="B78" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="B79" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="C79" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="D79" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="E79" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="F79" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="A76" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C76" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="46"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C77" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77" s="46"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C78" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D78" s="46"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="47"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C79" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" s="46"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="47"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="44" t="s">
+      <c r="A80" s="46" t="s">
         <v>136</v>
       </c>
       <c r="B80" s="49">
         <v>0.25</v>
       </c>
-      <c r="C80" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="D80" s="44"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
+      <c r="C80" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D80" s="46"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="47"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="B81" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C81" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D81" s="44"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="45"/>
+      <c r="A81" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="B82" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C82" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="D82" s="44"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="45"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B83" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C83" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D83" s="46"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B84" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C84" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D84" s="46"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B85" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C85" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="D85" s="46"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
+      <c r="A82" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C85" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D85" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E85" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F85" s="40" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="46" t="s">
+      <c r="A86" s="44" t="s">
         <v>136</v>
       </c>
       <c r="B86" s="49">
         <v>0.25</v>
       </c>
-      <c r="C86" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="D86" s="46"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="47"/>
+      <c r="C86" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" s="44"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="45"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="46" t="s">
+      <c r="A87" s="44" t="s">
         <v>136</v>
       </c>
       <c r="B87" s="49">
         <v>0.25</v>
       </c>
       <c r="C87" s="46" t="s">
-        <v>469</v>
-      </c>
-      <c r="D87" s="46"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="47"/>
+        <v>142</v>
+      </c>
+      <c r="D87" s="44"/>
+      <c r="E87" s="45"/>
+      <c r="F87" s="45"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="46" t="s">
+      <c r="A88" s="44" t="s">
         <v>136</v>
       </c>
       <c r="B88" s="49">
         <v>0.25</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>470</v>
-      </c>
-      <c r="D88" s="46"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="47"/>
+        <v>143</v>
+      </c>
+      <c r="D88" s="44"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="46" t="s">
+      <c r="A89" s="44" t="s">
         <v>136</v>
       </c>
       <c r="B89" s="49">
         <v>0.25</v>
       </c>
       <c r="C89" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="D89" s="46"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
+        <v>144</v>
+      </c>
+      <c r="D89" s="44"/>
+      <c r="E89" s="45"/>
+      <c r="F89" s="45"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="46" t="s">
@@ -33918,149 +33910,149 @@
         <v>0.25</v>
       </c>
       <c r="C90" s="46" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="D90" s="46"/>
       <c r="E90" s="47"/>
       <c r="F90" s="47"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="36" t="s">
+      <c r="A91" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C91" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="D91" s="46"/>
+      <c r="E91" s="47"/>
+      <c r="F91" s="47"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C92" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D92" s="46"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B93" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C93" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D93" s="46"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="47"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C94" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94" s="46"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="47"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="B91" s="36" t="s">
+      <c r="B95" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="38"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="36" t="s">
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="38"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="B92" s="36" t="s">
+      <c r="B96" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="C92" s="37"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="41" t="s">
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="38"/>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="B93" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="C93" s="42"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43"/>
-    </row>
-    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="48" t="s">
+      <c r="B97" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="43"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="B94" s="48" t="s">
+      <c r="B98" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="C94" s="42"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="43"/>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="B95" s="40" t="s">
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="43"/>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="B99" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="C95" s="40" t="s">
+      <c r="C99" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="D95" s="40" t="s">
+      <c r="D99" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="E95" s="40" t="s">
+      <c r="E99" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="F95" s="40" t="s">
+      <c r="F99" s="40" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="B96" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C96" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="D96" s="44"/>
-      <c r="E96" s="45"/>
-      <c r="F96" s="45"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="B97" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C97" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D97" s="44"/>
-      <c r="E97" s="45"/>
-      <c r="F97" s="45"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="B98" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C98" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="D98" s="44"/>
-      <c r="E98" s="45"/>
-      <c r="F98" s="45"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="B99" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C99" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D99" s="44"/>
-      <c r="E99" s="45"/>
-      <c r="F99" s="45"/>
-    </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="46" t="s">
+      <c r="A100" s="44" t="s">
         <v>136</v>
       </c>
       <c r="B100" s="49">
         <v>0.25</v>
       </c>
-      <c r="C100" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D100" s="46"/>
-      <c r="E100" s="47"/>
-      <c r="F100" s="47"/>
+      <c r="C100" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D100" s="44"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="45"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="46" t="s">
@@ -34070,7 +34062,7 @@
         <v>0.25</v>
       </c>
       <c r="C101" s="46" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D101" s="46"/>
       <c r="E101" s="47"/>
@@ -34084,7 +34076,7 @@
         <v>0.25</v>
       </c>
       <c r="C102" s="46" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D102" s="46"/>
       <c r="E102" s="47"/>
@@ -34098,7 +34090,7 @@
         <v>0.25</v>
       </c>
       <c r="C103" s="46" t="s">
-        <v>469</v>
+        <v>144</v>
       </c>
       <c r="D103" s="46"/>
       <c r="E103" s="47"/>
@@ -34112,7 +34104,7 @@
         <v>0.25</v>
       </c>
       <c r="C104" s="46" t="s">
-        <v>470</v>
+        <v>145</v>
       </c>
       <c r="D104" s="46"/>
       <c r="E104" s="47"/>
@@ -34126,7 +34118,7 @@
         <v>0.25</v>
       </c>
       <c r="C105" s="46" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="D105" s="46"/>
       <c r="E105" s="47"/>
@@ -34140,121 +34132,121 @@
         <v>0.25</v>
       </c>
       <c r="C106" s="46" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="D106" s="46"/>
       <c r="E106" s="47"/>
       <c r="F106" s="47"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="36" t="s">
+      <c r="A107" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C107" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D107" s="46"/>
+      <c r="E107" s="47"/>
+      <c r="F107" s="47"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C108" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D108" s="46"/>
+      <c r="E108" s="47"/>
+      <c r="F108" s="47"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="B107" s="36" t="s">
+      <c r="B109" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="38"/>
-      <c r="F107" s="38"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="36" t="s">
+      <c r="C109" s="37"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="38"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="B108" s="36" t="s">
+      <c r="B110" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="38"/>
-      <c r="F108" s="38"/>
-    </row>
-    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="41" t="s">
+      <c r="C110" s="37"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="38"/>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="B109" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="C109" s="42"/>
-      <c r="D109" s="42"/>
-      <c r="E109" s="43"/>
-      <c r="F109" s="43"/>
-    </row>
-    <row r="110" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="48" t="s">
+      <c r="B111" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="C111" s="42"/>
+      <c r="D111" s="42"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="43"/>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="B110" s="48" t="s">
+      <c r="B112" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="C110" s="42"/>
-      <c r="D110" s="42"/>
-      <c r="E110" s="43"/>
-      <c r="F110" s="43"/>
-    </row>
-    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="B111" s="40" t="s">
+      <c r="C112" s="42"/>
+      <c r="D112" s="42"/>
+      <c r="E112" s="43"/>
+      <c r="F112" s="43"/>
+    </row>
+    <row r="113" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="B113" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="C111" s="40" t="s">
+      <c r="C113" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="D111" s="40" t="s">
+      <c r="D113" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="E111" s="40" t="s">
+      <c r="E113" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="F111" s="40" t="s">
+      <c r="F113" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="B112" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C112" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="D112" s="44"/>
-      <c r="E112" s="45"/>
-      <c r="F112" s="45"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B113" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C113" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D113" s="46"/>
-      <c r="E113" s="47"/>
-      <c r="F113" s="47"/>
-    </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="46" t="s">
+      <c r="A114" s="44" t="s">
         <v>136</v>
       </c>
       <c r="B114" s="49">
         <v>0.25</v>
       </c>
-      <c r="C114" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="D114" s="46"/>
-      <c r="E114" s="47"/>
-      <c r="F114" s="47"/>
+      <c r="C114" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D114" s="44"/>
+      <c r="E114" s="45"/>
+      <c r="F114" s="45"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="46" t="s">
@@ -34264,7 +34256,7 @@
         <v>0.25</v>
       </c>
       <c r="C115" s="46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D115" s="46"/>
       <c r="E115" s="47"/>
@@ -34278,7 +34270,7 @@
         <v>0.25</v>
       </c>
       <c r="C116" s="46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D116" s="46"/>
       <c r="E116" s="47"/>
@@ -34292,7 +34284,7 @@
         <v>0.25</v>
       </c>
       <c r="C117" s="46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D117" s="46"/>
       <c r="E117" s="47"/>
@@ -34306,7 +34298,7 @@
         <v>0.25</v>
       </c>
       <c r="C118" s="46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D118" s="46"/>
       <c r="E118" s="47"/>
@@ -34320,7 +34312,7 @@
         <v>0.25</v>
       </c>
       <c r="C119" s="46" t="s">
-        <v>469</v>
+        <v>146</v>
       </c>
       <c r="D119" s="46"/>
       <c r="E119" s="47"/>
@@ -34334,7 +34326,7 @@
         <v>0.25</v>
       </c>
       <c r="C120" s="46" t="s">
-        <v>470</v>
+        <v>147</v>
       </c>
       <c r="D120" s="46"/>
       <c r="E120" s="47"/>
@@ -34393,16 +34385,16 @@
       <c r="F124" s="38"/>
     </row>
     <row r="125" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="41" t="s">
+      <c r="A125" s="36" t="s">
         <v>150</v>
       </c>
       <c r="B125" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="C125" s="42"/>
-      <c r="D125" s="42"/>
-      <c r="E125" s="43"/>
-      <c r="F125" s="43"/>
+        <v>469</v>
+      </c>
+      <c r="C125" s="37"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="38"/>
+      <c r="F125" s="38"/>
     </row>
     <row r="126" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="48" t="s">
@@ -34417,22 +34409,22 @@
       <c r="F126" s="43"/>
     </row>
     <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="B127" s="35" t="s">
+      <c r="A127" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="B127" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="C127" s="35" t="s">
+      <c r="C127" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="D127" s="35" t="s">
+      <c r="D127" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="E127" s="35" t="s">
+      <c r="E127" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="F127" s="35" t="s">
+      <c r="F127" s="40" t="s">
         <v>2</v>
       </c>
     </row>
@@ -34451,7 +34443,7 @@
       <c r="F128" s="45"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="46" t="s">
+      <c r="A129" s="44" t="s">
         <v>136</v>
       </c>
       <c r="B129" s="49">
@@ -34460,12 +34452,12 @@
       <c r="C129" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D129" s="46"/>
-      <c r="E129" s="47"/>
-      <c r="F129" s="47"/>
+      <c r="D129" s="44"/>
+      <c r="E129" s="45"/>
+      <c r="F129" s="45"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="46" t="s">
+      <c r="A130" s="44" t="s">
         <v>136</v>
       </c>
       <c r="B130" s="49">
@@ -34474,12 +34466,12 @@
       <c r="C130" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="D130" s="46"/>
-      <c r="E130" s="47"/>
-      <c r="F130" s="47"/>
+      <c r="D130" s="44"/>
+      <c r="E130" s="45"/>
+      <c r="F130" s="45"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="46" t="s">
+      <c r="A131" s="44" t="s">
         <v>136</v>
       </c>
       <c r="B131" s="49">
@@ -34488,9 +34480,9 @@
       <c r="C131" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="D131" s="46"/>
-      <c r="E131" s="47"/>
-      <c r="F131" s="47"/>
+      <c r="D131" s="44"/>
+      <c r="E131" s="45"/>
+      <c r="F131" s="45"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="46" t="s">
@@ -34542,7 +34534,7 @@
         <v>0.25</v>
       </c>
       <c r="C135" s="46" t="s">
-        <v>469</v>
+        <v>188</v>
       </c>
       <c r="D135" s="46"/>
       <c r="E135" s="47"/>
@@ -34556,117 +34548,117 @@
         <v>0.25</v>
       </c>
       <c r="C136" s="46" t="s">
-        <v>470</v>
+        <v>189</v>
       </c>
       <c r="D136" s="46"/>
       <c r="E136" s="47"/>
       <c r="F136" s="47"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="46" t="s">
+      <c r="A137" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B137" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C137" s="37"/>
+      <c r="D137" s="37"/>
+      <c r="E137" s="38"/>
+      <c r="F137" s="38"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C138" s="37"/>
+      <c r="D138" s="37"/>
+      <c r="E138" s="38"/>
+      <c r="F138" s="38"/>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="C139" s="42"/>
+      <c r="D139" s="42"/>
+      <c r="E139" s="43"/>
+      <c r="F139" s="43"/>
+    </row>
+    <row r="140" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B140" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C140" s="42"/>
+      <c r="D140" s="42"/>
+      <c r="E140" s="43"/>
+      <c r="F140" s="43"/>
+    </row>
+    <row r="141" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="39" t="s">
+        <v>580</v>
+      </c>
+      <c r="B141" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C141" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D141" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E141" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F141" s="40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="B137" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C137" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="D137" s="46"/>
-      <c r="E137" s="47"/>
-      <c r="F137" s="47"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="46" t="s">
+      <c r="B142" s="49">
+        <v>1.25</v>
+      </c>
+      <c r="C142" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D142" s="44"/>
+      <c r="E142" s="45"/>
+      <c r="F142" s="45"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="B138" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C138" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="D138" s="46"/>
-      <c r="E138" s="47"/>
-      <c r="F138" s="47"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B139" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C139" s="37"/>
-      <c r="D139" s="37"/>
-      <c r="E139" s="38"/>
-      <c r="F139" s="38"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="B140" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C140" s="37"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="38"/>
-      <c r="F140" s="38"/>
-    </row>
-    <row r="141" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B141" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="C141" s="37"/>
-      <c r="D141" s="37"/>
-      <c r="E141" s="38"/>
-      <c r="F141" s="38"/>
-    </row>
-    <row r="142" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="B142" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="C142" s="42"/>
-      <c r="D142" s="42"/>
-      <c r="E142" s="43"/>
-      <c r="F142" s="43"/>
-    </row>
-    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="39" t="s">
-        <v>536</v>
-      </c>
-      <c r="B143" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="C143" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="D143" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="E143" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="F143" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B143" s="49">
+        <v>1.25</v>
+      </c>
+      <c r="C143" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D143" s="44"/>
+      <c r="E143" s="45"/>
+      <c r="F143" s="45"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="44" t="s">
         <v>136</v>
       </c>
       <c r="B144" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C144" s="44" t="s">
-        <v>141</v>
+        <v>1.25</v>
+      </c>
+      <c r="C144" s="46" t="s">
+        <v>143</v>
       </c>
       <c r="D144" s="44"/>
       <c r="E144" s="45"/>
@@ -34677,52 +34669,52 @@
         <v>136</v>
       </c>
       <c r="B145" s="49">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="C145" s="46" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D145" s="44"/>
       <c r="E145" s="45"/>
       <c r="F145" s="45"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="44" t="s">
+      <c r="A146" s="46" t="s">
         <v>136</v>
       </c>
       <c r="B146" s="49">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="C146" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="D146" s="44"/>
-      <c r="E146" s="45"/>
-      <c r="F146" s="45"/>
+        <v>145</v>
+      </c>
+      <c r="D146" s="46"/>
+      <c r="E146" s="47"/>
+      <c r="F146" s="47"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="44" t="s">
+      <c r="A147" s="46" t="s">
         <v>136</v>
       </c>
       <c r="B147" s="49">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="C147" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D147" s="44"/>
-      <c r="E147" s="45"/>
-      <c r="F147" s="45"/>
+        <v>146</v>
+      </c>
+      <c r="D147" s="46"/>
+      <c r="E147" s="47"/>
+      <c r="F147" s="47"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="46" t="s">
         <v>136</v>
       </c>
       <c r="B148" s="49">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="C148" s="46" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D148" s="46"/>
       <c r="E148" s="47"/>
@@ -34733,10 +34725,10 @@
         <v>136</v>
       </c>
       <c r="B149" s="49">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="C149" s="46" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="D149" s="46"/>
       <c r="E149" s="47"/>
@@ -34747,486 +34739,484 @@
         <v>136</v>
       </c>
       <c r="B150" s="49">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="C150" s="46" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="D150" s="46"/>
       <c r="E150" s="47"/>
       <c r="F150" s="47"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="46" t="s">
+      <c r="A151" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B151" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C151" s="37"/>
+      <c r="D151" s="37"/>
+      <c r="E151" s="38"/>
+      <c r="F151" s="38"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C152" s="37"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="38"/>
+      <c r="F152" s="38"/>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="B153" s="41" t="s">
+        <v>581</v>
+      </c>
+      <c r="C153" s="42"/>
+      <c r="D153" s="42"/>
+      <c r="E153" s="43"/>
+      <c r="F153" s="43"/>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C154" s="42"/>
+      <c r="D154" s="42"/>
+      <c r="E154" s="43"/>
+      <c r="F154" s="43"/>
+    </row>
+    <row r="155" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="B155" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C155" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D155" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E155" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F155" s="40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="B151" s="49">
+      <c r="B156" s="49">
         <v>0.25</v>
       </c>
-      <c r="C151" s="46" t="s">
-        <v>469</v>
-      </c>
-      <c r="D151" s="46"/>
-      <c r="E151" s="47"/>
-      <c r="F151" s="47"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="46" t="s">
+      <c r="C156" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D156" s="44"/>
+      <c r="E156" s="45"/>
+      <c r="F156" s="45"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="B152" s="49">
+      <c r="B157" s="49">
         <v>0.25</v>
       </c>
-      <c r="C152" s="46" t="s">
-        <v>470</v>
-      </c>
-      <c r="D152" s="46"/>
-      <c r="E152" s="47"/>
-      <c r="F152" s="47"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="46" t="s">
+      <c r="C157" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D157" s="44"/>
+      <c r="E157" s="45"/>
+      <c r="F157" s="45"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="B153" s="49">
+      <c r="B158" s="49">
         <v>0.25</v>
       </c>
-      <c r="C153" s="46" t="s">
+      <c r="C158" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D158" s="44"/>
+      <c r="E158" s="45"/>
+      <c r="F158" s="45"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B159" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C159" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D159" s="44"/>
+      <c r="E159" s="45"/>
+      <c r="F159" s="45"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B160" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C160" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D160" s="46"/>
+      <c r="E160" s="47"/>
+      <c r="F160" s="47"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B161" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C161" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="D161" s="46"/>
+      <c r="E161" s="47"/>
+      <c r="F161" s="47"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B162" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C162" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D162" s="46"/>
+      <c r="E162" s="47"/>
+      <c r="F162" s="47"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B163" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C163" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="D153" s="46"/>
-      <c r="E153" s="47"/>
-      <c r="F153" s="47"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B154" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C154" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="D154" s="46"/>
-      <c r="E154" s="47"/>
-      <c r="F154" s="47"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B155" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C155" s="37"/>
-      <c r="D155" s="37"/>
-      <c r="E155" s="38"/>
-      <c r="F155" s="38"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="B156" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C156" s="37"/>
-      <c r="D156" s="37"/>
-      <c r="E156" s="38"/>
-      <c r="F156" s="38"/>
-    </row>
-    <row r="157" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="B157" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="C157" s="42"/>
-      <c r="D157" s="42"/>
-      <c r="E157" s="43"/>
-      <c r="F157" s="43"/>
-    </row>
-    <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="B158" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="C158" s="42"/>
-      <c r="D158" s="42"/>
-      <c r="E158" s="43"/>
-      <c r="F158" s="43"/>
-    </row>
-    <row r="159" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="39" t="s">
-        <v>582</v>
-      </c>
-      <c r="B159" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="C159" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="D159" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="E159" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="F159" s="40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="B160" s="49">
-        <v>1.25</v>
-      </c>
-      <c r="C160" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="D160" s="44"/>
-      <c r="E160" s="45"/>
-      <c r="F160" s="45"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="B161" s="49">
-        <v>1.25</v>
-      </c>
-      <c r="C161" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D161" s="44"/>
-      <c r="E161" s="45"/>
-      <c r="F161" s="45"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="B162" s="49">
-        <v>1.25</v>
-      </c>
-      <c r="C162" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="D162" s="44"/>
-      <c r="E162" s="45"/>
-      <c r="F162" s="45"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="B163" s="49">
-        <v>1.25</v>
-      </c>
-      <c r="C163" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D163" s="44"/>
-      <c r="E163" s="45"/>
-      <c r="F163" s="45"/>
+      <c r="D163" s="46"/>
+      <c r="E163" s="47"/>
+      <c r="F163" s="47"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="46" t="s">
         <v>136</v>
       </c>
       <c r="B164" s="49">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="C164" s="46" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="D164" s="46"/>
       <c r="E164" s="47"/>
       <c r="F164" s="47"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="46" t="s">
+      <c r="A165" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B165" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C165" s="37"/>
+      <c r="D165" s="37"/>
+      <c r="E165" s="38"/>
+      <c r="F165" s="38"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B166" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C166" s="37"/>
+      <c r="D166" s="37"/>
+      <c r="E166" s="38"/>
+      <c r="F166" s="38"/>
+    </row>
+    <row r="167" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="B167" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="C167" s="42"/>
+      <c r="D167" s="42"/>
+      <c r="E167" s="43"/>
+      <c r="F167" s="43"/>
+    </row>
+    <row r="168" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B168" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C168" s="42"/>
+      <c r="D168" s="42"/>
+      <c r="E168" s="43"/>
+      <c r="F168" s="43"/>
+    </row>
+    <row r="169" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="34" t="s">
+        <v>589</v>
+      </c>
+      <c r="B169" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C169" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D169" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E169" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F169" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="B165" s="49">
-        <v>1.25</v>
-      </c>
-      <c r="C165" s="46" t="s">
+      <c r="B170" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C170" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D170" s="44"/>
+      <c r="E170" s="45"/>
+      <c r="F170" s="45"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B171" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C171" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D171" s="46"/>
+      <c r="E171" s="47"/>
+      <c r="F171" s="47"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B172" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C172" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D172" s="46"/>
+      <c r="E172" s="47"/>
+      <c r="F172" s="47"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B173" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C173" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D173" s="46"/>
+      <c r="E173" s="47"/>
+      <c r="F173" s="47"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B174" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C174" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D174" s="46"/>
+      <c r="E174" s="47"/>
+      <c r="F174" s="47"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B175" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C175" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="D165" s="46"/>
-      <c r="E165" s="47"/>
-      <c r="F165" s="47"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B166" s="49">
-        <v>1.25</v>
-      </c>
-      <c r="C166" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="D166" s="46"/>
-      <c r="E166" s="47"/>
-      <c r="F166" s="47"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B167" s="49">
-        <v>1.25</v>
-      </c>
-      <c r="C167" s="46" t="s">
-        <v>469</v>
-      </c>
-      <c r="D167" s="46"/>
-      <c r="E167" s="47"/>
-      <c r="F167" s="47"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B168" s="49">
-        <v>1.25</v>
-      </c>
-      <c r="C168" s="46" t="s">
-        <v>470</v>
-      </c>
-      <c r="D168" s="46"/>
-      <c r="E168" s="47"/>
-      <c r="F168" s="47"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B169" s="49">
-        <v>1.25</v>
-      </c>
-      <c r="C169" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="D169" s="46"/>
-      <c r="E169" s="47"/>
-      <c r="F169" s="47"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B170" s="49">
-        <v>1.25</v>
-      </c>
-      <c r="C170" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="D170" s="46"/>
-      <c r="E170" s="47"/>
-      <c r="F170" s="47"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B171" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C171" s="37"/>
-      <c r="D171" s="37"/>
-      <c r="E171" s="38"/>
-      <c r="F171" s="38"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="B172" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C172" s="37"/>
-      <c r="D172" s="37"/>
-      <c r="E172" s="38"/>
-      <c r="F172" s="38"/>
-    </row>
-    <row r="173" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="B173" s="41" t="s">
-        <v>583</v>
-      </c>
-      <c r="C173" s="42"/>
-      <c r="D173" s="42"/>
-      <c r="E173" s="43"/>
-      <c r="F173" s="43"/>
-    </row>
-    <row r="174" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="B174" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="C174" s="42"/>
-      <c r="D174" s="42"/>
-      <c r="E174" s="43"/>
-      <c r="F174" s="43"/>
-    </row>
-    <row r="175" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="39" t="s">
-        <v>584</v>
-      </c>
-      <c r="B175" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="C175" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="D175" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="E175" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="F175" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="D175" s="46"/>
+      <c r="E175" s="47"/>
+      <c r="F175" s="47"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="44" t="s">
+      <c r="A176" s="46" t="s">
         <v>136</v>
       </c>
       <c r="B176" s="49">
         <v>0.25</v>
       </c>
-      <c r="C176" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="D176" s="44"/>
-      <c r="E176" s="45"/>
-      <c r="F176" s="45"/>
+      <c r="C176" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D176" s="46"/>
+      <c r="E176" s="47"/>
+      <c r="F176" s="47"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="44" t="s">
+      <c r="A177" s="46" t="s">
         <v>136</v>
       </c>
       <c r="B177" s="49">
         <v>0.25</v>
       </c>
       <c r="C177" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D177" s="44"/>
-      <c r="E177" s="45"/>
-      <c r="F177" s="45"/>
+        <v>188</v>
+      </c>
+      <c r="D177" s="46"/>
+      <c r="E177" s="47"/>
+      <c r="F177" s="47"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="44" t="s">
+      <c r="A178" s="46" t="s">
         <v>136</v>
       </c>
       <c r="B178" s="49">
         <v>0.25</v>
       </c>
       <c r="C178" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="D178" s="44"/>
-      <c r="E178" s="45"/>
-      <c r="F178" s="45"/>
+        <v>189</v>
+      </c>
+      <c r="D178" s="46"/>
+      <c r="E178" s="47"/>
+      <c r="F178" s="47"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="B179" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C179" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D179" s="44"/>
-      <c r="E179" s="45"/>
-      <c r="F179" s="45"/>
+      <c r="A179" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B179" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C179" s="37"/>
+      <c r="D179" s="37"/>
+      <c r="E179" s="38"/>
+      <c r="F179" s="38"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B180" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C180" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D180" s="46"/>
-      <c r="E180" s="47"/>
-      <c r="F180" s="47"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B181" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C181" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="D181" s="46"/>
-      <c r="E181" s="47"/>
-      <c r="F181" s="47"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B182" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C182" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="D182" s="46"/>
-      <c r="E182" s="47"/>
-      <c r="F182" s="47"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B183" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C183" s="46" t="s">
+      <c r="A180" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B180" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C180" s="37"/>
+      <c r="D180" s="37"/>
+      <c r="E180" s="38"/>
+      <c r="F180" s="38"/>
+    </row>
+    <row r="181" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B181" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="D183" s="46"/>
-      <c r="E183" s="47"/>
-      <c r="F183" s="47"/>
+      <c r="C181" s="37"/>
+      <c r="D181" s="37"/>
+      <c r="E181" s="38"/>
+      <c r="F181" s="38"/>
+    </row>
+    <row r="182" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B182" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C182" s="42"/>
+      <c r="D182" s="42"/>
+      <c r="E182" s="43"/>
+      <c r="F182" s="43"/>
+    </row>
+    <row r="183" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="B183" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C183" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D183" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E183" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F183" s="35" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="46" t="s">
+      <c r="A184" s="44" t="s">
         <v>136</v>
       </c>
       <c r="B184" s="49">
         <v>0.25</v>
       </c>
-      <c r="C184" s="46" t="s">
-        <v>470</v>
-      </c>
-      <c r="D184" s="46"/>
-      <c r="E184" s="47"/>
-      <c r="F184" s="47"/>
+      <c r="C184" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D184" s="44"/>
+      <c r="E184" s="45"/>
+      <c r="F184" s="45"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="46" t="s">
@@ -35236,7 +35226,7 @@
         <v>0.25</v>
       </c>
       <c r="C185" s="46" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="D185" s="46"/>
       <c r="E185" s="47"/>
@@ -35250,503 +35240,143 @@
         <v>0.25</v>
       </c>
       <c r="C186" s="46" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="D186" s="46"/>
       <c r="E186" s="47"/>
       <c r="F186" s="47"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B187" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C187" s="37"/>
-      <c r="D187" s="37"/>
-      <c r="E187" s="38"/>
-      <c r="F187" s="38"/>
+      <c r="A187" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B187" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C187" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D187" s="46"/>
+      <c r="E187" s="47"/>
+      <c r="F187" s="47"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="B188" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C188" s="37"/>
-      <c r="D188" s="37"/>
-      <c r="E188" s="38"/>
-      <c r="F188" s="38"/>
-    </row>
-    <row r="189" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="B189" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="C189" s="42"/>
-      <c r="D189" s="42"/>
-      <c r="E189" s="43"/>
-      <c r="F189" s="43"/>
-    </row>
-    <row r="190" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="B190" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="C190" s="42"/>
-      <c r="D190" s="42"/>
-      <c r="E190" s="43"/>
-      <c r="F190" s="43"/>
-    </row>
-    <row r="191" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="34" t="s">
-        <v>591</v>
-      </c>
-      <c r="B191" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C191" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D191" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="E191" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="F191" s="35" t="s">
-        <v>2</v>
-      </c>
+      <c r="A188" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B188" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C188" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D188" s="46"/>
+      <c r="E188" s="47"/>
+      <c r="F188" s="47"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B189" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C189" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="D189" s="46"/>
+      <c r="E189" s="47"/>
+      <c r="F189" s="47"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B190" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C190" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D190" s="46"/>
+      <c r="E190" s="47"/>
+      <c r="F190" s="47"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B191" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C191" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D191" s="46"/>
+      <c r="E191" s="47"/>
+      <c r="F191" s="47"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="44" t="s">
+      <c r="A192" s="46" t="s">
         <v>136</v>
       </c>
       <c r="B192" s="49">
         <v>0.25</v>
       </c>
-      <c r="C192" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="D192" s="44"/>
-      <c r="E192" s="45"/>
-      <c r="F192" s="45"/>
+      <c r="C192" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D192" s="46"/>
+      <c r="E192" s="47"/>
+      <c r="F192" s="47"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B193" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C193" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D193" s="46"/>
-      <c r="E193" s="47"/>
-      <c r="F193" s="47"/>
+      <c r="A193" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B193" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C193" s="37"/>
+      <c r="D193" s="37"/>
+      <c r="E193" s="38"/>
+      <c r="F193" s="38"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B194" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C194" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="D194" s="46"/>
-      <c r="E194" s="47"/>
-      <c r="F194" s="47"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B195" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C195" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D195" s="46"/>
-      <c r="E195" s="47"/>
-      <c r="F195" s="47"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B196" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C196" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D196" s="46"/>
-      <c r="E196" s="47"/>
-      <c r="F196" s="47"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B197" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C197" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="D197" s="46"/>
-      <c r="E197" s="47"/>
-      <c r="F197" s="47"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B198" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C198" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="D198" s="46"/>
-      <c r="E198" s="47"/>
-      <c r="F198" s="47"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B199" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C199" s="46" t="s">
+      <c r="A194" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B194" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C194" s="37"/>
+      <c r="D194" s="37"/>
+      <c r="E194" s="38"/>
+      <c r="F194" s="38"/>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B195" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="D199" s="46"/>
-      <c r="E199" s="47"/>
-      <c r="F199" s="47"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B200" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C200" s="46" t="s">
-        <v>470</v>
-      </c>
-      <c r="D200" s="46"/>
-      <c r="E200" s="47"/>
-      <c r="F200" s="47"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B201" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C201" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="D201" s="46"/>
-      <c r="E201" s="47"/>
-      <c r="F201" s="47"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B202" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C202" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="D202" s="46"/>
-      <c r="E202" s="47"/>
-      <c r="F202" s="47"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B203" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C203" s="37"/>
-      <c r="D203" s="37"/>
-      <c r="E203" s="38"/>
-      <c r="F203" s="38"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="B204" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C204" s="37"/>
-      <c r="D204" s="37"/>
-      <c r="E204" s="38"/>
-      <c r="F204" s="38"/>
-    </row>
-    <row r="205" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B205" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="C205" s="37"/>
-      <c r="D205" s="37"/>
-      <c r="E205" s="38"/>
-      <c r="F205" s="38"/>
-    </row>
-    <row r="206" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="48" t="s">
+      <c r="C195" s="37"/>
+      <c r="D195" s="37"/>
+      <c r="E195" s="38"/>
+      <c r="F195" s="38"/>
+    </row>
+    <row r="196" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="B206" s="48" t="s">
+      <c r="B196" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="C206" s="42"/>
-      <c r="D206" s="42"/>
-      <c r="E206" s="43"/>
-      <c r="F206" s="43"/>
-    </row>
-    <row r="207" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="34" t="s">
-        <v>592</v>
-      </c>
-      <c r="B207" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C207" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D207" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="E207" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="F207" s="35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="B208" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C208" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="D208" s="44"/>
-      <c r="E208" s="45"/>
-      <c r="F208" s="45"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B209" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C209" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D209" s="46"/>
-      <c r="E209" s="47"/>
-      <c r="F209" s="47"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B210" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C210" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="D210" s="46"/>
-      <c r="E210" s="47"/>
-      <c r="F210" s="47"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B211" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C211" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D211" s="46"/>
-      <c r="E211" s="47"/>
-      <c r="F211" s="47"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B212" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C212" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D212" s="46"/>
-      <c r="E212" s="47"/>
-      <c r="F212" s="47"/>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B213" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C213" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="D213" s="46"/>
-      <c r="E213" s="47"/>
-      <c r="F213" s="47"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B214" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C214" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="D214" s="46"/>
-      <c r="E214" s="47"/>
-      <c r="F214" s="47"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B215" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C215" s="46" t="s">
-        <v>469</v>
-      </c>
-      <c r="D215" s="46"/>
-      <c r="E215" s="47"/>
-      <c r="F215" s="47"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B216" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C216" s="46" t="s">
-        <v>470</v>
-      </c>
-      <c r="D216" s="46"/>
-      <c r="E216" s="47"/>
-      <c r="F216" s="47"/>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B217" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C217" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="D217" s="46"/>
-      <c r="E217" s="47"/>
-      <c r="F217" s="47"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B218" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C218" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="D218" s="46"/>
-      <c r="E218" s="47"/>
-      <c r="F218" s="47"/>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B219" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C219" s="37"/>
-      <c r="D219" s="37"/>
-      <c r="E219" s="38"/>
-      <c r="F219" s="38"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="B220" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C220" s="37"/>
-      <c r="D220" s="37"/>
-      <c r="E220" s="38"/>
-      <c r="F220" s="38"/>
-    </row>
-    <row r="221" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B221" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="C221" s="37"/>
-      <c r="D221" s="37"/>
-      <c r="E221" s="38"/>
-      <c r="F221" s="38"/>
-    </row>
-    <row r="222" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="B222" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="C222" s="42"/>
-      <c r="D222" s="42"/>
-      <c r="E222" s="43"/>
-      <c r="F222" s="43"/>
+      <c r="C196" s="42"/>
+      <c r="D196" s="42"/>
+      <c r="E196" s="43"/>
+      <c r="F196" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
